--- a/Test data/TC08_EditVaccine.xlsx
+++ b/Test data/TC08_EditVaccine.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\Project\Test data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32925286-E24A-495F-B964-047A2A3801C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44402A5D-93BD-4545-8133-031663D7896C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="803" uniqueCount="152">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="761" uniqueCount="145">
   <si>
     <t>TDID</t>
   </si>
@@ -218,15 +218,6 @@
     <t>TD50</t>
   </si>
   <si>
-    <t>TD51</t>
-  </si>
-  <si>
-    <t>TD52</t>
-  </si>
-  <si>
-    <t>TD53</t>
-  </si>
-  <si>
     <t>กรุณากรอกชื่อบริษัทผู้นำเข้า</t>
   </si>
   <si>
@@ -248,9 +239,6 @@
     <t>10000</t>
   </si>
   <si>
-    <t>N</t>
-  </si>
-  <si>
     <t>Vaccine name</t>
   </si>
   <si>
@@ -332,9 +320,6 @@
     <t>วันปัจจุบันหรือวันในอดีต และเป็นวันที่มากกว่าวันที่ผลิต และน้อยกว่าวันที่หมดอายุ</t>
   </si>
   <si>
-    <t>กรุณาเลือกวันที่นำเข้า</t>
-  </si>
-  <si>
     <t>วันที่นำเข้าห้ามเป็นวันในอนาคต และต้องเป็นวันที่มากกว่าวันที่ผลิต และน้อยกว่าวันที่หมดอายุ</t>
   </si>
   <si>
@@ -344,13 +329,7 @@
     <t>วันในอดีต</t>
   </si>
   <si>
-    <t>กรุณาเลือกวันที่ผลิต</t>
-  </si>
-  <si>
     <t>วันที่ผลิตต้องเป็นวันในอดีต</t>
-  </si>
-  <si>
-    <t>กรุณาเลือกวันที่หมดอายุ</t>
   </si>
   <si>
     <t>วันที่หมดอายุต้องเป็นวันในอนาคต</t>
@@ -911,10 +890,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:R54"/>
+  <dimension ref="A1:R51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" zoomScale="51" zoomScaleNormal="51" workbookViewId="0">
-      <selection activeCell="O61" sqref="O61"/>
+    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="51" zoomScaleNormal="51" workbookViewId="0">
+      <selection activeCell="F55" sqref="F55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.5"/>
@@ -950,16 +929,16 @@
         <v>5</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="I1" s="3" t="s">
         <v>8</v>
@@ -980,58 +959,58 @@
         <v>55</v>
       </c>
       <c r="O1" s="3" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="P1" s="3" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="Q1" s="3" t="s">
         <v>1</v>
       </c>
       <c r="R1" s="3" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
     </row>
     <row r="2" spans="1:18">
       <c r="A2" s="5" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>3</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="E2" s="7"/>
       <c r="F2" s="4" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="I2" s="4" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="J2" s="4" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
       <c r="K2" s="4" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
       <c r="L2" s="4" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="M2" s="4" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="N2" s="4" t="s">
-        <v>148</v>
+        <v>141</v>
       </c>
       <c r="O2" s="4" t="s">
         <v>7</v>
@@ -1042,49 +1021,49 @@
     </row>
     <row r="3" spans="1:18">
       <c r="A3" s="5" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>71</v>
+        <v>3</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="E3" s="8" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="I3" s="4" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="J3" s="4" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
       <c r="K3" s="4" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
       <c r="L3" s="4" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="M3" s="4" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="N3" s="4" t="s">
-        <v>148</v>
+        <v>141</v>
       </c>
       <c r="O3" s="4" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="P3" s="4"/>
       <c r="Q3" s="4"/>
@@ -1092,49 +1071,49 @@
     </row>
     <row r="4" spans="1:18">
       <c r="A4" s="5" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>71</v>
+        <v>3</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="E4" s="8" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="H4" s="4" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="I4" s="4" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="J4" s="4" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
       <c r="K4" s="4" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
       <c r="L4" s="4" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="M4" s="4" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="N4" s="4" t="s">
-        <v>148</v>
+        <v>141</v>
       </c>
       <c r="O4" s="4" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="P4" s="4"/>
       <c r="Q4" s="4"/>
@@ -1142,49 +1121,49 @@
     </row>
     <row r="5" spans="1:18">
       <c r="A5" s="5" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>71</v>
+        <v>3</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="E5" s="8" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="H5" s="4" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="I5" s="4" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="J5" s="4" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
       <c r="K5" s="4" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
       <c r="L5" s="4" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="M5" s="4" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="N5" s="4" t="s">
-        <v>148</v>
+        <v>141</v>
       </c>
       <c r="O5" s="4" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="P5" s="4"/>
       <c r="Q5" s="4"/>
@@ -1192,49 +1171,49 @@
     </row>
     <row r="6" spans="1:18">
       <c r="A6" s="5" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>71</v>
+        <v>3</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="E6" s="8" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="H6" s="4" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="I6" s="4" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="J6" s="4" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
       <c r="K6" s="4" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
       <c r="L6" s="4" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="M6" s="4" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="N6" s="4" t="s">
-        <v>148</v>
+        <v>141</v>
       </c>
       <c r="O6" s="4" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="P6" s="4"/>
       <c r="Q6" s="4"/>
@@ -1242,47 +1221,49 @@
     </row>
     <row r="7" spans="1:18">
       <c r="A7" s="5" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>71</v>
+        <v>3</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="F7" s="7"/>
+        <v>88</v>
+      </c>
+      <c r="F7" s="8" t="s">
+        <v>91</v>
+      </c>
       <c r="G7" s="4" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="H7" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="I7" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="J7" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="K7" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="L7" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="M7" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="N7" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="O7" s="4" t="s">
         <v>95</v>
-      </c>
-      <c r="I7" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="J7" s="4" t="s">
-        <v>119</v>
-      </c>
-      <c r="K7" s="4" t="s">
-        <v>119</v>
-      </c>
-      <c r="L7" s="4" t="s">
-        <v>132</v>
-      </c>
-      <c r="M7" s="4" t="s">
-        <v>142</v>
-      </c>
-      <c r="N7" s="4" t="s">
-        <v>148</v>
-      </c>
-      <c r="O7" s="4" t="s">
-        <v>99</v>
       </c>
       <c r="P7" s="4"/>
       <c r="Q7" s="4"/>
@@ -1290,49 +1271,49 @@
     </row>
     <row r="8" spans="1:18">
       <c r="A8" s="5" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>71</v>
+        <v>3</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="E8" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="F8" s="8" t="s">
         <v>92</v>
       </c>
-      <c r="F8" s="8" t="s">
+      <c r="G8" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="H8" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="I8" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="J8" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="K8" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="L8" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="M8" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="N8" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="O8" s="4" t="s">
         <v>95</v>
-      </c>
-      <c r="G8" s="4" t="s">
-        <v>102</v>
-      </c>
-      <c r="H8" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="I8" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="J8" s="4" t="s">
-        <v>119</v>
-      </c>
-      <c r="K8" s="4" t="s">
-        <v>119</v>
-      </c>
-      <c r="L8" s="4" t="s">
-        <v>132</v>
-      </c>
-      <c r="M8" s="4" t="s">
-        <v>142</v>
-      </c>
-      <c r="N8" s="4" t="s">
-        <v>148</v>
-      </c>
-      <c r="O8" s="4" t="s">
-        <v>100</v>
       </c>
       <c r="P8" s="4"/>
       <c r="Q8" s="4"/>
@@ -1340,49 +1321,49 @@
     </row>
     <row r="9" spans="1:18">
       <c r="A9" s="5" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>71</v>
+        <v>3</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="F9" s="8" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="H9" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="I9" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="J9" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="K9" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="L9" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="M9" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="N9" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="O9" s="4" t="s">
         <v>95</v>
-      </c>
-      <c r="I9" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="J9" s="4" t="s">
-        <v>119</v>
-      </c>
-      <c r="K9" s="4" t="s">
-        <v>119</v>
-      </c>
-      <c r="L9" s="4" t="s">
-        <v>132</v>
-      </c>
-      <c r="M9" s="4" t="s">
-        <v>142</v>
-      </c>
-      <c r="N9" s="4" t="s">
-        <v>148</v>
-      </c>
-      <c r="O9" s="4" t="s">
-        <v>100</v>
       </c>
       <c r="P9" s="4"/>
       <c r="Q9" s="4"/>
@@ -1390,49 +1371,49 @@
     </row>
     <row r="10" spans="1:18">
       <c r="A10" s="5" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>71</v>
+        <v>3</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="F10" s="8" t="s">
-        <v>97</v>
-      </c>
-      <c r="G10" s="4" t="s">
-        <v>102</v>
+        <v>88</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="G10" s="8" t="s">
+        <v>96</v>
       </c>
       <c r="H10" s="4" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="I10" s="4" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="J10" s="4" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
       <c r="K10" s="4" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
       <c r="L10" s="4" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="M10" s="4" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="N10" s="4" t="s">
-        <v>148</v>
+        <v>141</v>
       </c>
       <c r="O10" s="4" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="P10" s="4"/>
       <c r="Q10" s="4"/>
@@ -1443,44 +1424,46 @@
         <v>17</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>71</v>
+        <v>3</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="F11" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="G11" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="H11" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="I11" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="J11" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="K11" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="L11" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="M11" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="N11" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="O11" s="4" t="s">
         <v>98</v>
-      </c>
-      <c r="G11" s="7"/>
-      <c r="H11" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="I11" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="J11" s="4" t="s">
-        <v>119</v>
-      </c>
-      <c r="K11" s="4" t="s">
-        <v>119</v>
-      </c>
-      <c r="L11" s="4" t="s">
-        <v>132</v>
-      </c>
-      <c r="M11" s="4" t="s">
-        <v>142</v>
-      </c>
-      <c r="N11" s="4" t="s">
-        <v>148</v>
-      </c>
-      <c r="O11" s="4" t="s">
-        <v>103</v>
       </c>
       <c r="P11" s="4"/>
       <c r="Q11" s="4"/>
@@ -1491,46 +1474,46 @@
         <v>18</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>71</v>
+        <v>3</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="G12" s="8" t="s">
-        <v>101</v>
-      </c>
-      <c r="H12" s="4" t="s">
-        <v>95</v>
+        <v>94</v>
+      </c>
+      <c r="G12" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="H12" s="8" t="s">
+        <v>96</v>
       </c>
       <c r="I12" s="4" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="J12" s="4" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
       <c r="K12" s="4" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
       <c r="L12" s="4" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="M12" s="4" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="N12" s="4" t="s">
-        <v>148</v>
+        <v>141</v>
       </c>
       <c r="O12" s="4" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="P12" s="4"/>
       <c r="Q12" s="4"/>
@@ -1541,46 +1524,46 @@
         <v>19</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>71</v>
+        <v>3</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="G13" s="8" t="s">
-        <v>95</v>
-      </c>
-      <c r="H13" s="4" t="s">
-        <v>95</v>
+        <v>94</v>
+      </c>
+      <c r="G13" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="H13" s="8" t="s">
+        <v>97</v>
       </c>
       <c r="I13" s="4" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="J13" s="4" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
       <c r="K13" s="4" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
       <c r="L13" s="4" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="M13" s="4" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="N13" s="4" t="s">
-        <v>148</v>
+        <v>141</v>
       </c>
       <c r="O13" s="4" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="P13" s="4"/>
       <c r="Q13" s="4"/>
@@ -1591,44 +1574,44 @@
         <v>20</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>71</v>
+        <v>3</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="G14" s="4" t="s">
-        <v>102</v>
-      </c>
-      <c r="H14" s="7"/>
-      <c r="I14" s="4" t="s">
-        <v>70</v>
-      </c>
+        <v>97</v>
+      </c>
+      <c r="H14" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="I14" s="7"/>
       <c r="J14" s="4" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
       <c r="K14" s="4" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
       <c r="L14" s="4" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="M14" s="4" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="N14" s="4" t="s">
-        <v>148</v>
+        <v>141</v>
       </c>
       <c r="O14" s="4" t="s">
-        <v>105</v>
+        <v>10</v>
       </c>
       <c r="P14" s="4"/>
       <c r="Q14" s="4"/>
@@ -1639,46 +1622,46 @@
         <v>21</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>71</v>
+        <v>3</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="F15" s="4" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="G15" s="4" t="s">
-        <v>102</v>
-      </c>
-      <c r="H15" s="8" t="s">
-        <v>101</v>
-      </c>
-      <c r="I15" s="4" t="s">
-        <v>70</v>
+        <v>97</v>
+      </c>
+      <c r="H15" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="I15" s="8" t="s">
+        <v>100</v>
       </c>
       <c r="J15" s="4" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
       <c r="K15" s="4" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
       <c r="L15" s="4" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="M15" s="4" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="N15" s="4" t="s">
-        <v>148</v>
+        <v>141</v>
       </c>
       <c r="O15" s="4" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="P15" s="4"/>
       <c r="Q15" s="4"/>
@@ -1689,46 +1672,46 @@
         <v>22</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>71</v>
+        <v>3</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="F16" s="4" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="G16" s="4" t="s">
-        <v>102</v>
-      </c>
-      <c r="H16" s="8" t="s">
-        <v>102</v>
-      </c>
-      <c r="I16" s="4" t="s">
-        <v>70</v>
+        <v>97</v>
+      </c>
+      <c r="H16" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="I16" s="8" t="s">
+        <v>101</v>
       </c>
       <c r="J16" s="4" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
       <c r="K16" s="4" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
       <c r="L16" s="4" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="M16" s="4" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="N16" s="4" t="s">
-        <v>148</v>
+        <v>141</v>
       </c>
       <c r="O16" s="4" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="P16" s="4"/>
       <c r="Q16" s="4"/>
@@ -1739,44 +1722,46 @@
         <v>23</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>71</v>
+        <v>3</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="F17" s="4" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="G17" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="H17" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="I17" s="8" t="s">
         <v>102</v>
       </c>
-      <c r="H17" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="I17" s="7"/>
       <c r="J17" s="4" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
       <c r="K17" s="4" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
       <c r="L17" s="4" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="M17" s="4" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="N17" s="4" t="s">
-        <v>148</v>
+        <v>141</v>
       </c>
       <c r="O17" s="4" t="s">
-        <v>10</v>
+        <v>108</v>
       </c>
       <c r="P17" s="4"/>
       <c r="Q17" s="4"/>
@@ -1787,46 +1772,46 @@
         <v>24</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>71</v>
+        <v>3</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="F18" s="4" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="G18" s="4" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="H18" s="4" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="I18" s="8" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="J18" s="4" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
       <c r="K18" s="4" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
       <c r="L18" s="4" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="M18" s="4" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="N18" s="4" t="s">
-        <v>148</v>
+        <v>141</v>
       </c>
       <c r="O18" s="4" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="P18" s="4"/>
       <c r="Q18" s="4"/>
@@ -1837,46 +1822,46 @@
         <v>25</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>71</v>
+        <v>3</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="F19" s="4" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="G19" s="4" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="H19" s="4" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="I19" s="8" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="J19" s="4" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
       <c r="K19" s="4" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
       <c r="L19" s="4" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="M19" s="4" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="N19" s="4" t="s">
-        <v>148</v>
+        <v>141</v>
       </c>
       <c r="O19" s="4" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="P19" s="4"/>
       <c r="Q19" s="4"/>
@@ -1887,46 +1872,46 @@
         <v>26</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>71</v>
+        <v>3</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="D20" s="6" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="E20" s="4" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="F20" s="4" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="G20" s="4" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="H20" s="4" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="I20" s="8" t="s">
+        <v>105</v>
+      </c>
+      <c r="J20" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="K20" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="L20" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="M20" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="N20" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="O20" s="4" t="s">
         <v>109</v>
-      </c>
-      <c r="J20" s="4" t="s">
-        <v>119</v>
-      </c>
-      <c r="K20" s="4" t="s">
-        <v>119</v>
-      </c>
-      <c r="L20" s="4" t="s">
-        <v>132</v>
-      </c>
-      <c r="M20" s="4" t="s">
-        <v>142</v>
-      </c>
-      <c r="N20" s="4" t="s">
-        <v>148</v>
-      </c>
-      <c r="O20" s="4" t="s">
-        <v>115</v>
       </c>
       <c r="P20" s="4"/>
       <c r="Q20" s="4"/>
@@ -1937,46 +1922,44 @@
         <v>27</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>71</v>
+        <v>3</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="D21" s="6" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="E21" s="4" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="F21" s="4" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="G21" s="4" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="H21" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="I21" s="8" t="s">
-        <v>110</v>
-      </c>
-      <c r="J21" s="4" t="s">
-        <v>119</v>
-      </c>
+        <v>91</v>
+      </c>
+      <c r="I21" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="J21" s="7"/>
       <c r="K21" s="4" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
       <c r="L21" s="4" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="M21" s="4" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="N21" s="4" t="s">
-        <v>148</v>
+        <v>141</v>
       </c>
       <c r="O21" s="4" t="s">
-        <v>115</v>
+        <v>12</v>
       </c>
       <c r="P21" s="4"/>
       <c r="Q21" s="4"/>
@@ -1987,46 +1970,46 @@
         <v>28</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>71</v>
+        <v>3</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="D22" s="6" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="E22" s="4" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="F22" s="4" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="G22" s="4" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="H22" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="I22" s="8" t="s">
-        <v>111</v>
-      </c>
-      <c r="J22" s="4" t="s">
-        <v>119</v>
+        <v>91</v>
+      </c>
+      <c r="I22" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="J22" s="8" t="s">
+        <v>6</v>
       </c>
       <c r="K22" s="4" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
       <c r="L22" s="4" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="M22" s="4" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="N22" s="4" t="s">
-        <v>148</v>
+        <v>141</v>
       </c>
       <c r="O22" s="4" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="P22" s="4"/>
       <c r="Q22" s="4"/>
@@ -2037,46 +2020,46 @@
         <v>29</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>71</v>
+        <v>3</v>
       </c>
       <c r="C23" s="6" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="D23" s="6" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="E23" s="4" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="F23" s="4" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="G23" s="4" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="H23" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="I23" s="8" t="s">
-        <v>112</v>
-      </c>
-      <c r="J23" s="4" t="s">
-        <v>119</v>
+        <v>91</v>
+      </c>
+      <c r="I23" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="J23" s="8" t="s">
+        <v>82</v>
       </c>
       <c r="K23" s="4" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
       <c r="L23" s="4" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="M23" s="4" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="N23" s="4" t="s">
-        <v>148</v>
+        <v>141</v>
       </c>
       <c r="O23" s="4" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="P23" s="4"/>
       <c r="Q23" s="4"/>
@@ -2087,44 +2070,46 @@
         <v>30</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>71</v>
+        <v>3</v>
       </c>
       <c r="C24" s="6" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="D24" s="6" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="E24" s="4" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="F24" s="4" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="G24" s="4" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="H24" s="4" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="I24" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="J24" s="7"/>
+        <v>67</v>
+      </c>
+      <c r="J24" s="8" t="s">
+        <v>83</v>
+      </c>
       <c r="K24" s="4" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
       <c r="L24" s="4" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="M24" s="4" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="N24" s="4" t="s">
-        <v>148</v>
+        <v>141</v>
       </c>
       <c r="O24" s="4" t="s">
-        <v>12</v>
+        <v>114</v>
       </c>
       <c r="P24" s="4"/>
       <c r="Q24" s="4"/>
@@ -2135,46 +2120,46 @@
         <v>31</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>71</v>
+        <v>3</v>
       </c>
       <c r="C25" s="6" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="D25" s="6" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="E25" s="4" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="F25" s="4" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="G25" s="4" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="H25" s="4" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="I25" s="4" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="J25" s="8" t="s">
-        <v>6</v>
+        <v>110</v>
       </c>
       <c r="K25" s="4" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
       <c r="L25" s="4" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="M25" s="4" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="N25" s="4" t="s">
-        <v>148</v>
+        <v>141</v>
       </c>
       <c r="O25" s="4" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="P25" s="4"/>
       <c r="Q25" s="4"/>
@@ -2185,46 +2170,44 @@
         <v>32</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>71</v>
+        <v>3</v>
       </c>
       <c r="C26" s="6" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="D26" s="6" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="E26" s="4" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="F26" s="4" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="G26" s="4" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="H26" s="4" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="I26" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="J26" s="8" t="s">
-        <v>86</v>
-      </c>
-      <c r="K26" s="4" t="s">
-        <v>119</v>
-      </c>
+        <v>67</v>
+      </c>
+      <c r="J26" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="K26" s="7"/>
       <c r="L26" s="4" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="M26" s="4" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="N26" s="4" t="s">
-        <v>148</v>
+        <v>141</v>
       </c>
       <c r="O26" s="4" t="s">
-        <v>120</v>
+        <v>61</v>
       </c>
       <c r="P26" s="4"/>
       <c r="Q26" s="4"/>
@@ -2235,46 +2218,46 @@
         <v>33</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>71</v>
+        <v>3</v>
       </c>
       <c r="C27" s="6" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="D27" s="6" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="E27" s="4" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="F27" s="4" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="G27" s="4" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="H27" s="4" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="I27" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="J27" s="8" t="s">
-        <v>87</v>
-      </c>
-      <c r="K27" s="4" t="s">
-        <v>119</v>
+        <v>67</v>
+      </c>
+      <c r="J27" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="K27" s="8" t="s">
+        <v>6</v>
       </c>
       <c r="L27" s="4" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="M27" s="4" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="N27" s="4" t="s">
-        <v>148</v>
+        <v>141</v>
       </c>
       <c r="O27" s="4" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="P27" s="4"/>
       <c r="Q27" s="4"/>
@@ -2285,46 +2268,46 @@
         <v>34</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>71</v>
+        <v>3</v>
       </c>
       <c r="C28" s="6" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="D28" s="6" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="E28" s="4" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="F28" s="4" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="G28" s="4" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="H28" s="4" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="I28" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="J28" s="8" t="s">
-        <v>117</v>
-      </c>
-      <c r="K28" s="4" t="s">
-        <v>119</v>
+        <v>67</v>
+      </c>
+      <c r="J28" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="K28" s="8" t="s">
+        <v>82</v>
       </c>
       <c r="L28" s="4" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="M28" s="4" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="N28" s="4" t="s">
-        <v>148</v>
+        <v>141</v>
       </c>
       <c r="O28" s="4" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="P28" s="4"/>
       <c r="Q28" s="4"/>
@@ -2335,44 +2318,46 @@
         <v>35</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>71</v>
+        <v>3</v>
       </c>
       <c r="C29" s="6" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="D29" s="6" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="E29" s="4" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="F29" s="4" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="G29" s="4" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="H29" s="4" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="I29" s="4" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="J29" s="4" t="s">
-        <v>119</v>
-      </c>
-      <c r="K29" s="7"/>
+        <v>112</v>
+      </c>
+      <c r="K29" s="8" t="s">
+        <v>83</v>
+      </c>
       <c r="L29" s="4" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="M29" s="4" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="N29" s="4" t="s">
-        <v>148</v>
+        <v>141</v>
       </c>
       <c r="O29" s="4" t="s">
-        <v>64</v>
+        <v>116</v>
       </c>
       <c r="P29" s="4"/>
       <c r="Q29" s="4"/>
@@ -2383,46 +2368,46 @@
         <v>36</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>71</v>
+        <v>3</v>
       </c>
       <c r="C30" s="6" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="D30" s="6" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="E30" s="4" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="F30" s="4" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="G30" s="4" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="H30" s="4" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="I30" s="4" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="J30" s="4" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
       <c r="K30" s="8" t="s">
-        <v>6</v>
+        <v>110</v>
       </c>
       <c r="L30" s="4" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="M30" s="4" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="N30" s="4" t="s">
-        <v>148</v>
+        <v>141</v>
       </c>
       <c r="O30" s="4" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="P30" s="4"/>
       <c r="Q30" s="4"/>
@@ -2433,46 +2418,44 @@
         <v>37</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>71</v>
+        <v>3</v>
       </c>
       <c r="C31" s="6" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="D31" s="6" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="E31" s="4" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="F31" s="4" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="G31" s="4" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="H31" s="4" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="I31" s="4" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="J31" s="4" t="s">
-        <v>119</v>
-      </c>
-      <c r="K31" s="8" t="s">
-        <v>86</v>
-      </c>
-      <c r="L31" s="4" t="s">
-        <v>132</v>
-      </c>
+        <v>112</v>
+      </c>
+      <c r="K31" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="L31" s="7"/>
       <c r="M31" s="4" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="N31" s="4" t="s">
-        <v>148</v>
+        <v>141</v>
       </c>
       <c r="O31" s="4" t="s">
-        <v>122</v>
+        <v>15</v>
       </c>
       <c r="P31" s="4"/>
       <c r="Q31" s="4"/>
@@ -2483,46 +2466,46 @@
         <v>38</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>71</v>
+        <v>3</v>
       </c>
       <c r="C32" s="6" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="D32" s="6" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="E32" s="4" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="F32" s="4" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="G32" s="4" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="H32" s="4" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="I32" s="4" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="J32" s="4" t="s">
-        <v>119</v>
-      </c>
-      <c r="K32" s="8" t="s">
-        <v>87</v>
-      </c>
-      <c r="L32" s="4" t="s">
-        <v>132</v>
+        <v>112</v>
+      </c>
+      <c r="K32" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="L32" s="8" t="s">
+        <v>117</v>
       </c>
       <c r="M32" s="4" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="N32" s="4" t="s">
-        <v>148</v>
+        <v>141</v>
       </c>
       <c r="O32" s="4" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="P32" s="4"/>
       <c r="Q32" s="4"/>
@@ -2533,46 +2516,46 @@
         <v>39</v>
       </c>
       <c r="B33" s="5" t="s">
-        <v>71</v>
+        <v>3</v>
       </c>
       <c r="C33" s="6" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="D33" s="6" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="E33" s="4" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="F33" s="4" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="G33" s="4" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="H33" s="4" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="I33" s="4" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="J33" s="4" t="s">
-        <v>119</v>
-      </c>
-      <c r="K33" s="8" t="s">
-        <v>117</v>
-      </c>
-      <c r="L33" s="4" t="s">
-        <v>132</v>
+        <v>112</v>
+      </c>
+      <c r="K33" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="L33" s="8" t="s">
+        <v>118</v>
       </c>
       <c r="M33" s="4" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="N33" s="4" t="s">
-        <v>148</v>
+        <v>141</v>
       </c>
       <c r="O33" s="4" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="P33" s="4"/>
       <c r="Q33" s="4"/>
@@ -2583,44 +2566,46 @@
         <v>40</v>
       </c>
       <c r="B34" s="5" t="s">
-        <v>71</v>
+        <v>3</v>
       </c>
       <c r="C34" s="6" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="D34" s="6" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="E34" s="4" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="F34" s="4" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="G34" s="4" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="H34" s="4" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="I34" s="4" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="J34" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="K34" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="L34" s="8" t="s">
         <v>119</v>
       </c>
-      <c r="K34" s="4" t="s">
-        <v>119</v>
-      </c>
-      <c r="L34" s="7"/>
       <c r="M34" s="4" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="N34" s="4" t="s">
-        <v>148</v>
+        <v>141</v>
       </c>
       <c r="O34" s="4" t="s">
-        <v>15</v>
+        <v>126</v>
       </c>
       <c r="P34" s="4"/>
       <c r="Q34" s="4"/>
@@ -2631,46 +2616,46 @@
         <v>41</v>
       </c>
       <c r="B35" s="5" t="s">
-        <v>71</v>
+        <v>3</v>
       </c>
       <c r="C35" s="6" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="D35" s="6" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="E35" s="4" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="F35" s="4" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="G35" s="4" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="H35" s="4" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="I35" s="4" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="J35" s="4" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
       <c r="K35" s="4" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
       <c r="L35" s="8" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="M35" s="4" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="N35" s="4" t="s">
-        <v>148</v>
+        <v>141</v>
       </c>
       <c r="O35" s="4" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="P35" s="4"/>
       <c r="Q35" s="4"/>
@@ -2681,46 +2666,46 @@
         <v>42</v>
       </c>
       <c r="B36" s="5" t="s">
-        <v>71</v>
+        <v>3</v>
       </c>
       <c r="C36" s="6" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="D36" s="6" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="E36" s="4" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="F36" s="4" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="G36" s="4" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="H36" s="4" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="I36" s="4" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="J36" s="4" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
       <c r="K36" s="4" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
       <c r="L36" s="8" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="M36" s="4" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="N36" s="4" t="s">
-        <v>148</v>
+        <v>141</v>
       </c>
       <c r="O36" s="4" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="P36" s="4"/>
       <c r="Q36" s="4"/>
@@ -2731,46 +2716,44 @@
         <v>43</v>
       </c>
       <c r="B37" s="5" t="s">
-        <v>71</v>
+        <v>3</v>
       </c>
       <c r="C37" s="6" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="D37" s="6" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="E37" s="4" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="F37" s="4" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="G37" s="4" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="H37" s="4" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="I37" s="4" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="J37" s="4" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
       <c r="K37" s="4" t="s">
-        <v>119</v>
-      </c>
-      <c r="L37" s="8" t="s">
-        <v>126</v>
-      </c>
-      <c r="M37" s="4" t="s">
-        <v>142</v>
-      </c>
+        <v>112</v>
+      </c>
+      <c r="L37" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="M37" s="7"/>
       <c r="N37" s="4" t="s">
-        <v>148</v>
+        <v>141</v>
       </c>
       <c r="O37" s="4" t="s">
-        <v>133</v>
+        <v>54</v>
       </c>
       <c r="P37" s="4"/>
       <c r="Q37" s="4"/>
@@ -2781,46 +2764,46 @@
         <v>44</v>
       </c>
       <c r="B38" s="5" t="s">
-        <v>71</v>
+        <v>3</v>
       </c>
       <c r="C38" s="6" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="D38" s="6" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="E38" s="4" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="F38" s="4" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="G38" s="4" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="H38" s="4" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="I38" s="4" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="J38" s="4" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
       <c r="K38" s="4" t="s">
-        <v>119</v>
-      </c>
-      <c r="L38" s="8" t="s">
-        <v>127</v>
-      </c>
-      <c r="M38" s="4" t="s">
-        <v>142</v>
+        <v>112</v>
+      </c>
+      <c r="L38" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="M38" s="8" t="s">
+        <v>128</v>
       </c>
       <c r="N38" s="4" t="s">
-        <v>148</v>
+        <v>141</v>
       </c>
       <c r="O38" s="4" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="P38" s="4"/>
       <c r="Q38" s="4"/>
@@ -2831,46 +2814,46 @@
         <v>45</v>
       </c>
       <c r="B39" s="5" t="s">
-        <v>71</v>
+        <v>3</v>
       </c>
       <c r="C39" s="6" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="D39" s="6" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="E39" s="4" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="F39" s="4" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="G39" s="4" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="H39" s="4" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="I39" s="4" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="J39" s="4" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
       <c r="K39" s="4" t="s">
-        <v>119</v>
-      </c>
-      <c r="L39" s="8" t="s">
-        <v>128</v>
-      </c>
-      <c r="M39" s="4" t="s">
-        <v>142</v>
+        <v>112</v>
+      </c>
+      <c r="L39" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="M39" s="8" t="s">
+        <v>129</v>
       </c>
       <c r="N39" s="4" t="s">
-        <v>148</v>
+        <v>141</v>
       </c>
       <c r="O39" s="4" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="P39" s="4"/>
       <c r="Q39" s="4"/>
@@ -2881,44 +2864,46 @@
         <v>46</v>
       </c>
       <c r="B40" s="5" t="s">
-        <v>71</v>
+        <v>3</v>
       </c>
       <c r="C40" s="6" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="D40" s="6" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="E40" s="4" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="F40" s="4" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="G40" s="4" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="H40" s="4" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="I40" s="4" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="J40" s="4" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
       <c r="K40" s="4" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
       <c r="L40" s="4" t="s">
-        <v>132</v>
-      </c>
-      <c r="M40" s="7"/>
+        <v>125</v>
+      </c>
+      <c r="M40" s="8" t="s">
+        <v>130</v>
+      </c>
       <c r="N40" s="4" t="s">
-        <v>148</v>
+        <v>141</v>
       </c>
       <c r="O40" s="4" t="s">
-        <v>54</v>
+        <v>137</v>
       </c>
       <c r="P40" s="4"/>
       <c r="Q40" s="4"/>
@@ -2929,46 +2914,46 @@
         <v>47</v>
       </c>
       <c r="B41" s="5" t="s">
-        <v>71</v>
+        <v>3</v>
       </c>
       <c r="C41" s="6" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="D41" s="6" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="E41" s="4" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="F41" s="4" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="G41" s="4" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="H41" s="4" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="I41" s="4" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="J41" s="4" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
       <c r="K41" s="4" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
       <c r="L41" s="4" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="M41" s="8" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="N41" s="4" t="s">
-        <v>148</v>
+        <v>141</v>
       </c>
       <c r="O41" s="4" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="P41" s="4"/>
       <c r="Q41" s="4"/>
@@ -2979,46 +2964,44 @@
         <v>48</v>
       </c>
       <c r="B42" s="5" t="s">
-        <v>71</v>
+        <v>3</v>
       </c>
       <c r="C42" s="6" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="D42" s="6" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="E42" s="4" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="F42" s="4" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="G42" s="4" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="H42" s="4" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="I42" s="4" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="J42" s="4" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
       <c r="K42" s="4" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
       <c r="L42" s="4" t="s">
-        <v>132</v>
-      </c>
-      <c r="M42" s="8" t="s">
-        <v>136</v>
-      </c>
-      <c r="N42" s="4" t="s">
-        <v>148</v>
-      </c>
+        <v>125</v>
+      </c>
+      <c r="M42" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="N42" s="7"/>
       <c r="O42" s="4" t="s">
-        <v>143</v>
+        <v>56</v>
       </c>
       <c r="P42" s="4"/>
       <c r="Q42" s="4"/>
@@ -3029,46 +3012,46 @@
         <v>49</v>
       </c>
       <c r="B43" s="5" t="s">
-        <v>71</v>
+        <v>3</v>
       </c>
       <c r="C43" s="6" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="D43" s="6" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="E43" s="4" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="F43" s="4" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="G43" s="4" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="H43" s="4" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="I43" s="4" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="J43" s="4" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
       <c r="K43" s="4" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
       <c r="L43" s="4" t="s">
-        <v>132</v>
-      </c>
-      <c r="M43" s="8" t="s">
-        <v>137</v>
-      </c>
-      <c r="N43" s="4" t="s">
-        <v>148</v>
+        <v>125</v>
+      </c>
+      <c r="M43" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="N43" s="8" t="s">
+        <v>100</v>
       </c>
       <c r="O43" s="4" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="P43" s="4"/>
       <c r="Q43" s="4"/>
@@ -3079,46 +3062,46 @@
         <v>50</v>
       </c>
       <c r="B44" s="5" t="s">
-        <v>71</v>
+        <v>3</v>
       </c>
       <c r="C44" s="6" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="D44" s="6" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="E44" s="4" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="F44" s="4" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="G44" s="4" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="H44" s="4" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="I44" s="4" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="J44" s="4" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
       <c r="K44" s="4" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
       <c r="L44" s="4" t="s">
-        <v>132</v>
-      </c>
-      <c r="M44" s="8" t="s">
-        <v>138</v>
-      </c>
-      <c r="N44" s="4" t="s">
-        <v>148</v>
+        <v>125</v>
+      </c>
+      <c r="M44" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="N44" s="8" t="s">
+        <v>101</v>
       </c>
       <c r="O44" s="4" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="P44" s="4"/>
       <c r="Q44" s="4"/>
@@ -3129,44 +3112,46 @@
         <v>51</v>
       </c>
       <c r="B45" s="5" t="s">
-        <v>71</v>
+        <v>3</v>
       </c>
       <c r="C45" s="6" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="D45" s="6" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="E45" s="4" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="F45" s="4" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="G45" s="4" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="H45" s="4" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="I45" s="4" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="J45" s="4" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
       <c r="K45" s="4" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
       <c r="L45" s="4" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="M45" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="N45" s="8" t="s">
+        <v>138</v>
+      </c>
+      <c r="O45" s="4" t="s">
         <v>142</v>
-      </c>
-      <c r="N45" s="7"/>
-      <c r="O45" s="4" t="s">
-        <v>56</v>
       </c>
       <c r="P45" s="4"/>
       <c r="Q45" s="4"/>
@@ -3177,46 +3162,46 @@
         <v>52</v>
       </c>
       <c r="B46" s="5" t="s">
-        <v>71</v>
+        <v>3</v>
       </c>
       <c r="C46" s="6" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="D46" s="6" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="E46" s="4" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="F46" s="4" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="G46" s="4" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="H46" s="4" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="I46" s="4" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="J46" s="4" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
       <c r="K46" s="4" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
       <c r="L46" s="4" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="M46" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="N46" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="O46" s="4" t="s">
         <v>142</v>
-      </c>
-      <c r="N46" s="8" t="s">
-        <v>107</v>
-      </c>
-      <c r="O46" s="4" t="s">
-        <v>149</v>
       </c>
       <c r="P46" s="4"/>
       <c r="Q46" s="4"/>
@@ -3227,46 +3212,46 @@
         <v>53</v>
       </c>
       <c r="B47" s="5" t="s">
-        <v>71</v>
+        <v>3</v>
       </c>
       <c r="C47" s="6" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="D47" s="6" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="E47" s="4" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="F47" s="4" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="G47" s="4" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="H47" s="4" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="I47" s="4" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="J47" s="4" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
       <c r="K47" s="4" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
       <c r="L47" s="4" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="M47" s="4" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="N47" s="8" t="s">
-        <v>108</v>
+        <v>139</v>
       </c>
       <c r="O47" s="4" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="P47" s="4"/>
       <c r="Q47" s="4"/>
@@ -3277,46 +3262,46 @@
         <v>57</v>
       </c>
       <c r="B48" s="5" t="s">
-        <v>71</v>
+        <v>3</v>
       </c>
       <c r="C48" s="6" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="D48" s="6" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="E48" s="4" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="F48" s="4" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="G48" s="4" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="H48" s="4" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="I48" s="4" t="s">
-        <v>70</v>
+        <v>9</v>
       </c>
       <c r="J48" s="4" t="s">
-        <v>119</v>
+        <v>85</v>
       </c>
       <c r="K48" s="4" t="s">
-        <v>119</v>
+        <v>85</v>
       </c>
       <c r="L48" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="M48" s="4" t="s">
         <v>132</v>
       </c>
-      <c r="M48" s="4" t="s">
-        <v>142</v>
-      </c>
-      <c r="N48" s="8" t="s">
-        <v>145</v>
+      <c r="N48" s="4" t="s">
+        <v>140</v>
       </c>
       <c r="O48" s="4" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="P48" s="4"/>
       <c r="Q48" s="4"/>
@@ -3327,46 +3312,46 @@
         <v>58</v>
       </c>
       <c r="B49" s="5" t="s">
-        <v>71</v>
+        <v>3</v>
       </c>
       <c r="C49" s="6" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="D49" s="6" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="E49" s="4" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="F49" s="4" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="G49" s="4" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="H49" s="4" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="I49" s="4" t="s">
-        <v>70</v>
+        <v>106</v>
       </c>
       <c r="J49" s="4" t="s">
-        <v>119</v>
+        <v>86</v>
       </c>
       <c r="K49" s="4" t="s">
-        <v>119</v>
+        <v>86</v>
       </c>
       <c r="L49" s="4" t="s">
-        <v>132</v>
+        <v>123</v>
       </c>
       <c r="M49" s="4" t="s">
-        <v>142</v>
-      </c>
-      <c r="N49" s="8" t="s">
-        <v>110</v>
+        <v>133</v>
+      </c>
+      <c r="N49" s="4" t="s">
+        <v>141</v>
       </c>
       <c r="O49" s="4" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="P49" s="4"/>
       <c r="Q49" s="4"/>
@@ -3377,46 +3362,46 @@
         <v>59</v>
       </c>
       <c r="B50" s="5" t="s">
-        <v>71</v>
+        <v>3</v>
       </c>
       <c r="C50" s="6" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="D50" s="6" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="E50" s="4" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="F50" s="4" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="G50" s="4" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="H50" s="4" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="I50" s="4" t="s">
-        <v>70</v>
+        <v>107</v>
       </c>
       <c r="J50" s="4" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
       <c r="K50" s="4" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
       <c r="L50" s="4" t="s">
-        <v>132</v>
+        <v>124</v>
       </c>
       <c r="M50" s="4" t="s">
-        <v>142</v>
-      </c>
-      <c r="N50" s="8" t="s">
-        <v>146</v>
+        <v>134</v>
+      </c>
+      <c r="N50" s="4" t="s">
+        <v>140</v>
       </c>
       <c r="O50" s="4" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="P50" s="4"/>
       <c r="Q50" s="4"/>
@@ -3427,200 +3412,50 @@
         <v>60</v>
       </c>
       <c r="B51" s="5" t="s">
-        <v>71</v>
+        <v>3</v>
       </c>
       <c r="C51" s="6" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="D51" s="6" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="E51" s="4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F51" s="4" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="G51" s="4" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="H51" s="4" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="I51" s="4" t="s">
-        <v>9</v>
+        <v>67</v>
       </c>
       <c r="J51" s="4" t="s">
-        <v>89</v>
+        <v>112</v>
       </c>
       <c r="K51" s="4" t="s">
-        <v>89</v>
+        <v>112</v>
       </c>
       <c r="L51" s="4" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="M51" s="4" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="N51" s="4" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="O51" s="4" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="P51" s="4"/>
       <c r="Q51" s="4"/>
       <c r="R51" s="4"/>
-    </row>
-    <row r="52" spans="1:18">
-      <c r="A52" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="B52" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="C52" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="D52" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="E52" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="F52" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="G52" s="4" t="s">
-        <v>102</v>
-      </c>
-      <c r="H52" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="I52" s="4" t="s">
-        <v>113</v>
-      </c>
-      <c r="J52" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="K52" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="L52" s="4" t="s">
-        <v>130</v>
-      </c>
-      <c r="M52" s="4" t="s">
-        <v>140</v>
-      </c>
-      <c r="N52" s="4" t="s">
-        <v>148</v>
-      </c>
-      <c r="O52" s="4" t="s">
-        <v>151</v>
-      </c>
-      <c r="P52" s="4"/>
-      <c r="Q52" s="4"/>
-      <c r="R52" s="4"/>
-    </row>
-    <row r="53" spans="1:18">
-      <c r="A53" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="B53" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="C53" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="D53" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="E53" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="F53" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="G53" s="4" t="s">
-        <v>102</v>
-      </c>
-      <c r="H53" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="I53" s="4" t="s">
-        <v>114</v>
-      </c>
-      <c r="J53" s="4" t="s">
-        <v>118</v>
-      </c>
-      <c r="K53" s="4" t="s">
-        <v>118</v>
-      </c>
-      <c r="L53" s="4" t="s">
-        <v>131</v>
-      </c>
-      <c r="M53" s="4" t="s">
-        <v>141</v>
-      </c>
-      <c r="N53" s="4" t="s">
-        <v>147</v>
-      </c>
-      <c r="O53" s="4" t="s">
-        <v>151</v>
-      </c>
-      <c r="P53" s="4"/>
-      <c r="Q53" s="4"/>
-      <c r="R53" s="4"/>
-    </row>
-    <row r="54" spans="1:18">
-      <c r="A54" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="B54" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C54" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="D54" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="E54" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="F54" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="G54" s="4" t="s">
-        <v>102</v>
-      </c>
-      <c r="H54" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="I54" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="J54" s="4" t="s">
-        <v>119</v>
-      </c>
-      <c r="K54" s="4" t="s">
-        <v>119</v>
-      </c>
-      <c r="L54" s="4" t="s">
-        <v>132</v>
-      </c>
-      <c r="M54" s="4" t="s">
-        <v>142</v>
-      </c>
-      <c r="N54" s="4" t="s">
-        <v>148</v>
-      </c>
-      <c r="O54" s="4" t="s">
-        <v>151</v>
-      </c>
-      <c r="P54" s="4"/>
-      <c r="Q54" s="4"/>
-      <c r="R54" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/Test data/TC08_EditVaccine.xlsx
+++ b/Test data/TC08_EditVaccine.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\Project\Test data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44402A5D-93BD-4545-8133-031663D7896C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7763BEF8-C0B4-4C98-9140-2DFCAC8FCDE8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="761" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="763" uniqueCount="147">
   <si>
     <t>TDID</t>
   </si>
@@ -468,6 +468,12 @@
   </si>
   <si>
     <t>แก้ไขข้อมูลสำเร็จ</t>
+  </si>
+  <si>
+    <t>Revised</t>
+  </si>
+  <si>
+    <t>Error</t>
   </si>
 </sst>
 </file>
@@ -890,17 +896,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:R51"/>
+  <dimension ref="A1:T51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="51" zoomScaleNormal="51" workbookViewId="0">
-      <selection activeCell="F55" sqref="F55"/>
+    <sheetView tabSelected="1" topLeftCell="I33" zoomScale="51" zoomScaleNormal="51" workbookViewId="0">
+      <selection activeCell="F53" sqref="F53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.5"/>
   <cols>
-    <col min="1" max="2" width="9" style="1"/>
-    <col min="3" max="3" width="20.08984375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="17.1796875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="5.81640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.08984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.6328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.7265625" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="52.1796875" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="73.81640625" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="15.6328125" style="1" customWidth="1"/>
@@ -912,10 +919,12 @@
     <col min="14" max="14" width="12.36328125" style="1" customWidth="1"/>
     <col min="15" max="15" width="84.6328125" style="1" bestFit="1" customWidth="1"/>
     <col min="16" max="18" width="22.1796875" style="1" customWidth="1"/>
-    <col min="19" max="16384" width="9" style="1"/>
+    <col min="19" max="19" width="9" style="1"/>
+    <col min="20" max="20" width="13.453125" style="1" customWidth="1"/>
+    <col min="21" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="20.399999999999999" customHeight="1">
+    <row r="1" spans="1:20" ht="20.399999999999999" customHeight="1">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -968,10 +977,16 @@
         <v>1</v>
       </c>
       <c r="R1" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="S1" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="T1" s="3" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="2" spans="1:18">
+    <row r="2" spans="1:20">
       <c r="A2" s="5" t="s">
         <v>72</v>
       </c>
@@ -1018,8 +1033,10 @@
       <c r="P2" s="4"/>
       <c r="Q2" s="4"/>
       <c r="R2" s="4"/>
-    </row>
-    <row r="3" spans="1:18">
+      <c r="S2" s="4"/>
+      <c r="T2" s="4"/>
+    </row>
+    <row r="3" spans="1:20">
       <c r="A3" s="5" t="s">
         <v>73</v>
       </c>
@@ -1068,8 +1085,10 @@
       <c r="P3" s="4"/>
       <c r="Q3" s="4"/>
       <c r="R3" s="4"/>
-    </row>
-    <row r="4" spans="1:18">
+      <c r="S3" s="4"/>
+      <c r="T3" s="4"/>
+    </row>
+    <row r="4" spans="1:20">
       <c r="A4" s="5" t="s">
         <v>74</v>
       </c>
@@ -1118,8 +1137,10 @@
       <c r="P4" s="4"/>
       <c r="Q4" s="4"/>
       <c r="R4" s="4"/>
-    </row>
-    <row r="5" spans="1:18">
+      <c r="S4" s="4"/>
+      <c r="T4" s="4"/>
+    </row>
+    <row r="5" spans="1:20">
       <c r="A5" s="5" t="s">
         <v>75</v>
       </c>
@@ -1168,8 +1189,10 @@
       <c r="P5" s="4"/>
       <c r="Q5" s="4"/>
       <c r="R5" s="4"/>
-    </row>
-    <row r="6" spans="1:18">
+      <c r="S5" s="4"/>
+      <c r="T5" s="4"/>
+    </row>
+    <row r="6" spans="1:20">
       <c r="A6" s="5" t="s">
         <v>76</v>
       </c>
@@ -1218,8 +1241,10 @@
       <c r="P6" s="4"/>
       <c r="Q6" s="4"/>
       <c r="R6" s="4"/>
-    </row>
-    <row r="7" spans="1:18">
+      <c r="S6" s="4"/>
+      <c r="T6" s="4"/>
+    </row>
+    <row r="7" spans="1:20">
       <c r="A7" s="5" t="s">
         <v>77</v>
       </c>
@@ -1268,8 +1293,10 @@
       <c r="P7" s="4"/>
       <c r="Q7" s="4"/>
       <c r="R7" s="4"/>
-    </row>
-    <row r="8" spans="1:18">
+      <c r="S7" s="4"/>
+      <c r="T7" s="4"/>
+    </row>
+    <row r="8" spans="1:20">
       <c r="A8" s="5" t="s">
         <v>78</v>
       </c>
@@ -1318,8 +1345,10 @@
       <c r="P8" s="4"/>
       <c r="Q8" s="4"/>
       <c r="R8" s="4"/>
-    </row>
-    <row r="9" spans="1:18">
+      <c r="S8" s="4"/>
+      <c r="T8" s="4"/>
+    </row>
+    <row r="9" spans="1:20">
       <c r="A9" s="5" t="s">
         <v>79</v>
       </c>
@@ -1368,8 +1397,10 @@
       <c r="P9" s="4"/>
       <c r="Q9" s="4"/>
       <c r="R9" s="4"/>
-    </row>
-    <row r="10" spans="1:18">
+      <c r="S9" s="4"/>
+      <c r="T9" s="4"/>
+    </row>
+    <row r="10" spans="1:20">
       <c r="A10" s="5" t="s">
         <v>80</v>
       </c>
@@ -1418,8 +1449,10 @@
       <c r="P10" s="4"/>
       <c r="Q10" s="4"/>
       <c r="R10" s="4"/>
-    </row>
-    <row r="11" spans="1:18">
+      <c r="S10" s="4"/>
+      <c r="T10" s="4"/>
+    </row>
+    <row r="11" spans="1:20">
       <c r="A11" s="5" t="s">
         <v>17</v>
       </c>
@@ -1468,8 +1501,10 @@
       <c r="P11" s="4"/>
       <c r="Q11" s="4"/>
       <c r="R11" s="4"/>
-    </row>
-    <row r="12" spans="1:18">
+      <c r="S11" s="4"/>
+      <c r="T11" s="4"/>
+    </row>
+    <row r="12" spans="1:20">
       <c r="A12" s="5" t="s">
         <v>18</v>
       </c>
@@ -1518,8 +1553,10 @@
       <c r="P12" s="4"/>
       <c r="Q12" s="4"/>
       <c r="R12" s="4"/>
-    </row>
-    <row r="13" spans="1:18">
+      <c r="S12" s="4"/>
+      <c r="T12" s="4"/>
+    </row>
+    <row r="13" spans="1:20">
       <c r="A13" s="5" t="s">
         <v>19</v>
       </c>
@@ -1568,8 +1605,10 @@
       <c r="P13" s="4"/>
       <c r="Q13" s="4"/>
       <c r="R13" s="4"/>
-    </row>
-    <row r="14" spans="1:18">
+      <c r="S13" s="4"/>
+      <c r="T13" s="4"/>
+    </row>
+    <row r="14" spans="1:20">
       <c r="A14" s="5" t="s">
         <v>20</v>
       </c>
@@ -1616,8 +1655,10 @@
       <c r="P14" s="4"/>
       <c r="Q14" s="4"/>
       <c r="R14" s="4"/>
-    </row>
-    <row r="15" spans="1:18">
+      <c r="S14" s="4"/>
+      <c r="T14" s="4"/>
+    </row>
+    <row r="15" spans="1:20">
       <c r="A15" s="5" t="s">
         <v>21</v>
       </c>
@@ -1666,8 +1707,10 @@
       <c r="P15" s="4"/>
       <c r="Q15" s="4"/>
       <c r="R15" s="4"/>
-    </row>
-    <row r="16" spans="1:18">
+      <c r="S15" s="4"/>
+      <c r="T15" s="4"/>
+    </row>
+    <row r="16" spans="1:20">
       <c r="A16" s="5" t="s">
         <v>22</v>
       </c>
@@ -1716,8 +1759,10 @@
       <c r="P16" s="4"/>
       <c r="Q16" s="4"/>
       <c r="R16" s="4"/>
-    </row>
-    <row r="17" spans="1:18">
+      <c r="S16" s="4"/>
+      <c r="T16" s="4"/>
+    </row>
+    <row r="17" spans="1:20">
       <c r="A17" s="5" t="s">
         <v>23</v>
       </c>
@@ -1766,8 +1811,10 @@
       <c r="P17" s="4"/>
       <c r="Q17" s="4"/>
       <c r="R17" s="4"/>
-    </row>
-    <row r="18" spans="1:18">
+      <c r="S17" s="4"/>
+      <c r="T17" s="4"/>
+    </row>
+    <row r="18" spans="1:20">
       <c r="A18" s="5" t="s">
         <v>24</v>
       </c>
@@ -1816,8 +1863,10 @@
       <c r="P18" s="4"/>
       <c r="Q18" s="4"/>
       <c r="R18" s="4"/>
-    </row>
-    <row r="19" spans="1:18">
+      <c r="S18" s="4"/>
+      <c r="T18" s="4"/>
+    </row>
+    <row r="19" spans="1:20">
       <c r="A19" s="5" t="s">
         <v>25</v>
       </c>
@@ -1866,8 +1915,10 @@
       <c r="P19" s="4"/>
       <c r="Q19" s="4"/>
       <c r="R19" s="4"/>
-    </row>
-    <row r="20" spans="1:18">
+      <c r="S19" s="4"/>
+      <c r="T19" s="4"/>
+    </row>
+    <row r="20" spans="1:20">
       <c r="A20" s="5" t="s">
         <v>26</v>
       </c>
@@ -1916,8 +1967,10 @@
       <c r="P20" s="4"/>
       <c r="Q20" s="4"/>
       <c r="R20" s="4"/>
-    </row>
-    <row r="21" spans="1:18">
+      <c r="S20" s="4"/>
+      <c r="T20" s="4"/>
+    </row>
+    <row r="21" spans="1:20">
       <c r="A21" s="5" t="s">
         <v>27</v>
       </c>
@@ -1964,8 +2017,10 @@
       <c r="P21" s="4"/>
       <c r="Q21" s="4"/>
       <c r="R21" s="4"/>
-    </row>
-    <row r="22" spans="1:18">
+      <c r="S21" s="4"/>
+      <c r="T21" s="4"/>
+    </row>
+    <row r="22" spans="1:20">
       <c r="A22" s="5" t="s">
         <v>28</v>
       </c>
@@ -2014,8 +2069,10 @@
       <c r="P22" s="4"/>
       <c r="Q22" s="4"/>
       <c r="R22" s="4"/>
-    </row>
-    <row r="23" spans="1:18">
+      <c r="S22" s="4"/>
+      <c r="T22" s="4"/>
+    </row>
+    <row r="23" spans="1:20">
       <c r="A23" s="5" t="s">
         <v>29</v>
       </c>
@@ -2064,8 +2121,10 @@
       <c r="P23" s="4"/>
       <c r="Q23" s="4"/>
       <c r="R23" s="4"/>
-    </row>
-    <row r="24" spans="1:18">
+      <c r="S23" s="4"/>
+      <c r="T23" s="4"/>
+    </row>
+    <row r="24" spans="1:20">
       <c r="A24" s="5" t="s">
         <v>30</v>
       </c>
@@ -2114,8 +2173,10 @@
       <c r="P24" s="4"/>
       <c r="Q24" s="4"/>
       <c r="R24" s="4"/>
-    </row>
-    <row r="25" spans="1:18">
+      <c r="S24" s="4"/>
+      <c r="T24" s="4"/>
+    </row>
+    <row r="25" spans="1:20">
       <c r="A25" s="5" t="s">
         <v>31</v>
       </c>
@@ -2164,8 +2225,10 @@
       <c r="P25" s="4"/>
       <c r="Q25" s="4"/>
       <c r="R25" s="4"/>
-    </row>
-    <row r="26" spans="1:18">
+      <c r="S25" s="4"/>
+      <c r="T25" s="4"/>
+    </row>
+    <row r="26" spans="1:20">
       <c r="A26" s="5" t="s">
         <v>32</v>
       </c>
@@ -2212,8 +2275,10 @@
       <c r="P26" s="4"/>
       <c r="Q26" s="4"/>
       <c r="R26" s="4"/>
-    </row>
-    <row r="27" spans="1:18">
+      <c r="S26" s="4"/>
+      <c r="T26" s="4"/>
+    </row>
+    <row r="27" spans="1:20">
       <c r="A27" s="5" t="s">
         <v>33</v>
       </c>
@@ -2262,8 +2327,10 @@
       <c r="P27" s="4"/>
       <c r="Q27" s="4"/>
       <c r="R27" s="4"/>
-    </row>
-    <row r="28" spans="1:18">
+      <c r="S27" s="4"/>
+      <c r="T27" s="4"/>
+    </row>
+    <row r="28" spans="1:20">
       <c r="A28" s="5" t="s">
         <v>34</v>
       </c>
@@ -2312,8 +2379,10 @@
       <c r="P28" s="4"/>
       <c r="Q28" s="4"/>
       <c r="R28" s="4"/>
-    </row>
-    <row r="29" spans="1:18">
+      <c r="S28" s="4"/>
+      <c r="T28" s="4"/>
+    </row>
+    <row r="29" spans="1:20">
       <c r="A29" s="5" t="s">
         <v>35</v>
       </c>
@@ -2362,8 +2431,10 @@
       <c r="P29" s="4"/>
       <c r="Q29" s="4"/>
       <c r="R29" s="4"/>
-    </row>
-    <row r="30" spans="1:18">
+      <c r="S29" s="4"/>
+      <c r="T29" s="4"/>
+    </row>
+    <row r="30" spans="1:20">
       <c r="A30" s="5" t="s">
         <v>36</v>
       </c>
@@ -2412,8 +2483,10 @@
       <c r="P30" s="4"/>
       <c r="Q30" s="4"/>
       <c r="R30" s="4"/>
-    </row>
-    <row r="31" spans="1:18">
+      <c r="S30" s="4"/>
+      <c r="T30" s="4"/>
+    </row>
+    <row r="31" spans="1:20">
       <c r="A31" s="5" t="s">
         <v>37</v>
       </c>
@@ -2460,8 +2533,10 @@
       <c r="P31" s="4"/>
       <c r="Q31" s="4"/>
       <c r="R31" s="4"/>
-    </row>
-    <row r="32" spans="1:18">
+      <c r="S31" s="4"/>
+      <c r="T31" s="4"/>
+    </row>
+    <row r="32" spans="1:20">
       <c r="A32" s="5" t="s">
         <v>38</v>
       </c>
@@ -2510,8 +2585,10 @@
       <c r="P32" s="4"/>
       <c r="Q32" s="4"/>
       <c r="R32" s="4"/>
-    </row>
-    <row r="33" spans="1:18">
+      <c r="S32" s="4"/>
+      <c r="T32" s="4"/>
+    </row>
+    <row r="33" spans="1:20">
       <c r="A33" s="5" t="s">
         <v>39</v>
       </c>
@@ -2560,8 +2637,10 @@
       <c r="P33" s="4"/>
       <c r="Q33" s="4"/>
       <c r="R33" s="4"/>
-    </row>
-    <row r="34" spans="1:18">
+      <c r="S33" s="4"/>
+      <c r="T33" s="4"/>
+    </row>
+    <row r="34" spans="1:20">
       <c r="A34" s="5" t="s">
         <v>40</v>
       </c>
@@ -2610,8 +2689,10 @@
       <c r="P34" s="4"/>
       <c r="Q34" s="4"/>
       <c r="R34" s="4"/>
-    </row>
-    <row r="35" spans="1:18">
+      <c r="S34" s="4"/>
+      <c r="T34" s="4"/>
+    </row>
+    <row r="35" spans="1:20">
       <c r="A35" s="5" t="s">
         <v>41</v>
       </c>
@@ -2660,8 +2741,10 @@
       <c r="P35" s="4"/>
       <c r="Q35" s="4"/>
       <c r="R35" s="4"/>
-    </row>
-    <row r="36" spans="1:18">
+      <c r="S35" s="4"/>
+      <c r="T35" s="4"/>
+    </row>
+    <row r="36" spans="1:20">
       <c r="A36" s="5" t="s">
         <v>42</v>
       </c>
@@ -2710,8 +2793,10 @@
       <c r="P36" s="4"/>
       <c r="Q36" s="4"/>
       <c r="R36" s="4"/>
-    </row>
-    <row r="37" spans="1:18">
+      <c r="S36" s="4"/>
+      <c r="T36" s="4"/>
+    </row>
+    <row r="37" spans="1:20">
       <c r="A37" s="5" t="s">
         <v>43</v>
       </c>
@@ -2758,8 +2843,10 @@
       <c r="P37" s="4"/>
       <c r="Q37" s="4"/>
       <c r="R37" s="4"/>
-    </row>
-    <row r="38" spans="1:18">
+      <c r="S37" s="4"/>
+      <c r="T37" s="4"/>
+    </row>
+    <row r="38" spans="1:20">
       <c r="A38" s="5" t="s">
         <v>44</v>
       </c>
@@ -2808,8 +2895,10 @@
       <c r="P38" s="4"/>
       <c r="Q38" s="4"/>
       <c r="R38" s="4"/>
-    </row>
-    <row r="39" spans="1:18">
+      <c r="S38" s="4"/>
+      <c r="T38" s="4"/>
+    </row>
+    <row r="39" spans="1:20">
       <c r="A39" s="5" t="s">
         <v>45</v>
       </c>
@@ -2858,8 +2947,10 @@
       <c r="P39" s="4"/>
       <c r="Q39" s="4"/>
       <c r="R39" s="4"/>
-    </row>
-    <row r="40" spans="1:18">
+      <c r="S39" s="4"/>
+      <c r="T39" s="4"/>
+    </row>
+    <row r="40" spans="1:20">
       <c r="A40" s="5" t="s">
         <v>46</v>
       </c>
@@ -2908,8 +2999,10 @@
       <c r="P40" s="4"/>
       <c r="Q40" s="4"/>
       <c r="R40" s="4"/>
-    </row>
-    <row r="41" spans="1:18">
+      <c r="S40" s="4"/>
+      <c r="T40" s="4"/>
+    </row>
+    <row r="41" spans="1:20">
       <c r="A41" s="5" t="s">
         <v>47</v>
       </c>
@@ -2958,8 +3051,10 @@
       <c r="P41" s="4"/>
       <c r="Q41" s="4"/>
       <c r="R41" s="4"/>
-    </row>
-    <row r="42" spans="1:18">
+      <c r="S41" s="4"/>
+      <c r="T41" s="4"/>
+    </row>
+    <row r="42" spans="1:20">
       <c r="A42" s="5" t="s">
         <v>48</v>
       </c>
@@ -3006,8 +3101,10 @@
       <c r="P42" s="4"/>
       <c r="Q42" s="4"/>
       <c r="R42" s="4"/>
-    </row>
-    <row r="43" spans="1:18">
+      <c r="S42" s="4"/>
+      <c r="T42" s="4"/>
+    </row>
+    <row r="43" spans="1:20">
       <c r="A43" s="5" t="s">
         <v>49</v>
       </c>
@@ -3056,8 +3153,10 @@
       <c r="P43" s="4"/>
       <c r="Q43" s="4"/>
       <c r="R43" s="4"/>
-    </row>
-    <row r="44" spans="1:18">
+      <c r="S43" s="4"/>
+      <c r="T43" s="4"/>
+    </row>
+    <row r="44" spans="1:20">
       <c r="A44" s="5" t="s">
         <v>50</v>
       </c>
@@ -3106,8 +3205,10 @@
       <c r="P44" s="4"/>
       <c r="Q44" s="4"/>
       <c r="R44" s="4"/>
-    </row>
-    <row r="45" spans="1:18">
+      <c r="S44" s="4"/>
+      <c r="T44" s="4"/>
+    </row>
+    <row r="45" spans="1:20">
       <c r="A45" s="5" t="s">
         <v>51</v>
       </c>
@@ -3156,8 +3257,10 @@
       <c r="P45" s="4"/>
       <c r="Q45" s="4"/>
       <c r="R45" s="4"/>
-    </row>
-    <row r="46" spans="1:18">
+      <c r="S45" s="4"/>
+      <c r="T45" s="4"/>
+    </row>
+    <row r="46" spans="1:20">
       <c r="A46" s="5" t="s">
         <v>52</v>
       </c>
@@ -3206,8 +3309,10 @@
       <c r="P46" s="4"/>
       <c r="Q46" s="4"/>
       <c r="R46" s="4"/>
-    </row>
-    <row r="47" spans="1:18">
+      <c r="S46" s="4"/>
+      <c r="T46" s="4"/>
+    </row>
+    <row r="47" spans="1:20">
       <c r="A47" s="5" t="s">
         <v>53</v>
       </c>
@@ -3256,8 +3361,10 @@
       <c r="P47" s="4"/>
       <c r="Q47" s="4"/>
       <c r="R47" s="4"/>
-    </row>
-    <row r="48" spans="1:18">
+      <c r="S47" s="4"/>
+      <c r="T47" s="4"/>
+    </row>
+    <row r="48" spans="1:20">
       <c r="A48" s="5" t="s">
         <v>57</v>
       </c>
@@ -3306,8 +3413,10 @@
       <c r="P48" s="4"/>
       <c r="Q48" s="4"/>
       <c r="R48" s="4"/>
-    </row>
-    <row r="49" spans="1:18">
+      <c r="S48" s="4"/>
+      <c r="T48" s="4"/>
+    </row>
+    <row r="49" spans="1:20">
       <c r="A49" s="5" t="s">
         <v>58</v>
       </c>
@@ -3356,8 +3465,10 @@
       <c r="P49" s="4"/>
       <c r="Q49" s="4"/>
       <c r="R49" s="4"/>
-    </row>
-    <row r="50" spans="1:18">
+      <c r="S49" s="4"/>
+      <c r="T49" s="4"/>
+    </row>
+    <row r="50" spans="1:20">
       <c r="A50" s="5" t="s">
         <v>59</v>
       </c>
@@ -3406,8 +3517,10 @@
       <c r="P50" s="4"/>
       <c r="Q50" s="4"/>
       <c r="R50" s="4"/>
-    </row>
-    <row r="51" spans="1:18">
+      <c r="S50" s="4"/>
+      <c r="T50" s="4"/>
+    </row>
+    <row r="51" spans="1:20">
       <c r="A51" s="5" t="s">
         <v>60</v>
       </c>
@@ -3456,6 +3569,8 @@
       <c r="P51" s="4"/>
       <c r="Q51" s="4"/>
       <c r="R51" s="4"/>
+      <c r="S51" s="4"/>
+      <c r="T51" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/Test data/TC08_EditVaccine.xlsx
+++ b/Test data/TC08_EditVaccine.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26731"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\Project\Test data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7763BEF8-C0B4-4C98-9140-2DFCAC8FCDE8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8AB08E04-B01B-46D3-8831-01104FB2DBD4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="763" uniqueCount="147">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="778" uniqueCount="150">
   <si>
     <t>TDID</t>
   </si>
@@ -317,12 +317,6 @@
     <t>วันที่มากกว่าวันที่หมดอายุ</t>
   </si>
   <si>
-    <t>วันปัจจุบันหรือวันในอดีต และเป็นวันที่มากกว่าวันที่ผลิต และน้อยกว่าวันที่หมดอายุ</t>
-  </si>
-  <si>
-    <t>วันที่นำเข้าห้ามเป็นวันในอนาคต และต้องเป็นวันที่มากกว่าวันที่ผลิต และน้อยกว่าวันที่หมดอายุ</t>
-  </si>
-  <si>
     <t>วันปัจจุบัน</t>
   </si>
   <si>
@@ -474,6 +468,21 @@
   </si>
   <si>
     <t>Error</t>
+  </si>
+  <si>
+    <t>วันเดียวกันกับวันที่ผลิต</t>
+  </si>
+  <si>
+    <t>วันเดียวกันกับวันที่หมดอายุ</t>
+  </si>
+  <si>
+    <t>วันที่นำเข้าต้องเป็นวันที่มากกว่าวันที่ผลิตและน้อยกว่าวันที่หมดอายุ</t>
+  </si>
+  <si>
+    <t>TD51</t>
+  </si>
+  <si>
+    <t>วันที่มากกว่าวันที่ผลิตและน้อยกว่าวันที่หมดอายุ</t>
   </si>
 </sst>
 </file>
@@ -896,10 +905,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:T51"/>
+  <dimension ref="A1:T52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I33" zoomScale="51" zoomScaleNormal="51" workbookViewId="0">
-      <selection activeCell="F53" sqref="F53"/>
+    <sheetView tabSelected="1" topLeftCell="A38" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="E54" sqref="E54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.5"/>
@@ -909,7 +918,7 @@
     <col min="3" max="3" width="11.6328125" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9.7265625" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="52.1796875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="73.81640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="44.54296875" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="15.6328125" style="1" customWidth="1"/>
     <col min="8" max="8" width="13.7265625" style="1" customWidth="1"/>
     <col min="9" max="9" width="12.90625" style="2" bestFit="1" customWidth="1"/>
@@ -917,10 +926,8 @@
     <col min="12" max="12" width="26" style="1" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="22.7265625" style="1" customWidth="1"/>
     <col min="14" max="14" width="12.36328125" style="1" customWidth="1"/>
-    <col min="15" max="15" width="84.6328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="18" width="22.1796875" style="1" customWidth="1"/>
-    <col min="19" max="19" width="9" style="1"/>
-    <col min="20" max="20" width="13.453125" style="1" customWidth="1"/>
+    <col min="15" max="15" width="75.7265625" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="20" width="14.81640625" style="1" customWidth="1"/>
     <col min="21" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
@@ -977,10 +984,10 @@
         <v>1</v>
       </c>
       <c r="R1" s="3" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="S1" s="3" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="T1" s="3" t="s">
         <v>71</v>
@@ -1001,10 +1008,10 @@
       </c>
       <c r="E2" s="7"/>
       <c r="F2" s="4" t="s">
-        <v>94</v>
+        <v>149</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="H2" s="4" t="s">
         <v>91</v>
@@ -1013,19 +1020,19 @@
         <v>67</v>
       </c>
       <c r="J2" s="4" t="s">
-        <v>112</v>
+        <v>86</v>
       </c>
       <c r="K2" s="4" t="s">
-        <v>112</v>
+        <v>86</v>
       </c>
       <c r="L2" s="4" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="M2" s="4" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="N2" s="4" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="O2" s="4" t="s">
         <v>7</v>
@@ -1053,10 +1060,10 @@
         <v>81</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>94</v>
+        <v>149</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="H3" s="4" t="s">
         <v>91</v>
@@ -1065,19 +1072,19 @@
         <v>67</v>
       </c>
       <c r="J3" s="4" t="s">
-        <v>112</v>
+        <v>86</v>
       </c>
       <c r="K3" s="4" t="s">
-        <v>112</v>
+        <v>86</v>
       </c>
       <c r="L3" s="4" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="M3" s="4" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="N3" s="4" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="O3" s="4" t="s">
         <v>89</v>
@@ -1105,10 +1112,10 @@
         <v>82</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>94</v>
+        <v>149</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="H4" s="4" t="s">
         <v>91</v>
@@ -1117,19 +1124,19 @@
         <v>67</v>
       </c>
       <c r="J4" s="4" t="s">
-        <v>112</v>
+        <v>86</v>
       </c>
       <c r="K4" s="4" t="s">
-        <v>112</v>
+        <v>86</v>
       </c>
       <c r="L4" s="4" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="M4" s="4" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="N4" s="4" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="O4" s="4" t="s">
         <v>89</v>
@@ -1157,10 +1164,10 @@
         <v>83</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>94</v>
+        <v>149</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="H5" s="4" t="s">
         <v>91</v>
@@ -1169,19 +1176,19 @@
         <v>67</v>
       </c>
       <c r="J5" s="4" t="s">
-        <v>112</v>
+        <v>86</v>
       </c>
       <c r="K5" s="4" t="s">
-        <v>112</v>
+        <v>86</v>
       </c>
       <c r="L5" s="4" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="M5" s="4" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="N5" s="4" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="O5" s="4" t="s">
         <v>90</v>
@@ -1209,10 +1216,10 @@
         <v>84</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>94</v>
+        <v>149</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="H6" s="4" t="s">
         <v>91</v>
@@ -1221,19 +1228,19 @@
         <v>67</v>
       </c>
       <c r="J6" s="4" t="s">
-        <v>112</v>
+        <v>86</v>
       </c>
       <c r="K6" s="4" t="s">
-        <v>112</v>
+        <v>86</v>
       </c>
       <c r="L6" s="4" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="M6" s="4" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="N6" s="4" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="O6" s="4" t="s">
         <v>90</v>
@@ -1258,13 +1265,13 @@
         <v>63</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="F7" s="8" t="s">
-        <v>91</v>
+        <v>145</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="H7" s="4" t="s">
         <v>91</v>
@@ -1273,22 +1280,22 @@
         <v>67</v>
       </c>
       <c r="J7" s="4" t="s">
-        <v>112</v>
+        <v>86</v>
       </c>
       <c r="K7" s="4" t="s">
-        <v>112</v>
+        <v>86</v>
       </c>
       <c r="L7" s="4" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="M7" s="4" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="N7" s="4" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="O7" s="4" t="s">
-        <v>95</v>
+        <v>147</v>
       </c>
       <c r="P7" s="4"/>
       <c r="Q7" s="4"/>
@@ -1310,13 +1317,13 @@
         <v>63</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="F8" s="8" t="s">
         <v>92</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="H8" s="4" t="s">
         <v>91</v>
@@ -1325,22 +1332,22 @@
         <v>67</v>
       </c>
       <c r="J8" s="4" t="s">
-        <v>112</v>
+        <v>86</v>
       </c>
       <c r="K8" s="4" t="s">
-        <v>112</v>
+        <v>86</v>
       </c>
       <c r="L8" s="4" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="M8" s="4" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="N8" s="4" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="O8" s="4" t="s">
-        <v>95</v>
+        <v>147</v>
       </c>
       <c r="P8" s="4"/>
       <c r="Q8" s="4"/>
@@ -1362,13 +1369,13 @@
         <v>63</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="F9" s="8" t="s">
-        <v>93</v>
+        <v>146</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="H9" s="4" t="s">
         <v>91</v>
@@ -1377,22 +1384,22 @@
         <v>67</v>
       </c>
       <c r="J9" s="4" t="s">
-        <v>112</v>
+        <v>86</v>
       </c>
       <c r="K9" s="4" t="s">
-        <v>112</v>
+        <v>86</v>
       </c>
       <c r="L9" s="4" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="M9" s="4" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="N9" s="4" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="O9" s="4" t="s">
-        <v>95</v>
+        <v>147</v>
       </c>
       <c r="P9" s="4"/>
       <c r="Q9" s="4"/>
@@ -1414,13 +1421,13 @@
         <v>63</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="F10" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="G10" s="8" t="s">
-        <v>96</v>
+        <v>86</v>
+      </c>
+      <c r="F10" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="G10" s="4" t="s">
+        <v>95</v>
       </c>
       <c r="H10" s="4" t="s">
         <v>91</v>
@@ -1429,22 +1436,22 @@
         <v>67</v>
       </c>
       <c r="J10" s="4" t="s">
-        <v>112</v>
+        <v>86</v>
       </c>
       <c r="K10" s="4" t="s">
-        <v>112</v>
+        <v>86</v>
       </c>
       <c r="L10" s="4" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="M10" s="4" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="N10" s="4" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="O10" s="4" t="s">
-        <v>98</v>
+        <v>147</v>
       </c>
       <c r="P10" s="4"/>
       <c r="Q10" s="4"/>
@@ -1466,14 +1473,14 @@
         <v>63</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="F11" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="G11" s="8" t="s">
         <v>94</v>
       </c>
-      <c r="G11" s="8" t="s">
-        <v>91</v>
-      </c>
       <c r="H11" s="4" t="s">
         <v>91</v>
       </c>
@@ -1481,22 +1488,22 @@
         <v>67</v>
       </c>
       <c r="J11" s="4" t="s">
-        <v>112</v>
+        <v>86</v>
       </c>
       <c r="K11" s="4" t="s">
-        <v>112</v>
+        <v>86</v>
       </c>
       <c r="L11" s="4" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="M11" s="4" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="N11" s="4" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="O11" s="4" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="P11" s="4"/>
       <c r="Q11" s="4"/>
@@ -1518,37 +1525,37 @@
         <v>63</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="G12" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="H12" s="8" t="s">
+        <v>149</v>
+      </c>
+      <c r="G12" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="H12" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="I12" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="J12" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="K12" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="L12" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="M12" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="N12" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="O12" s="4" t="s">
         <v>96</v>
-      </c>
-      <c r="I12" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="J12" s="4" t="s">
-        <v>112</v>
-      </c>
-      <c r="K12" s="4" t="s">
-        <v>112</v>
-      </c>
-      <c r="L12" s="4" t="s">
-        <v>125</v>
-      </c>
-      <c r="M12" s="4" t="s">
-        <v>135</v>
-      </c>
-      <c r="N12" s="4" t="s">
-        <v>141</v>
-      </c>
-      <c r="O12" s="4" t="s">
-        <v>99</v>
       </c>
       <c r="P12" s="4"/>
       <c r="Q12" s="4"/>
@@ -1570,37 +1577,37 @@
         <v>63</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="F13" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="G13" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="H13" s="8" t="s">
         <v>94</v>
       </c>
-      <c r="G13" s="4" t="s">
+      <c r="I13" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="J13" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="K13" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="L13" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="M13" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="N13" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="O13" s="4" t="s">
         <v>97</v>
-      </c>
-      <c r="H13" s="8" t="s">
-        <v>97</v>
-      </c>
-      <c r="I13" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="J13" s="4" t="s">
-        <v>112</v>
-      </c>
-      <c r="K13" s="4" t="s">
-        <v>112</v>
-      </c>
-      <c r="L13" s="4" t="s">
-        <v>125</v>
-      </c>
-      <c r="M13" s="4" t="s">
-        <v>135</v>
-      </c>
-      <c r="N13" s="4" t="s">
-        <v>141</v>
-      </c>
-      <c r="O13" s="4" t="s">
-        <v>99</v>
       </c>
       <c r="P13" s="4"/>
       <c r="Q13" s="4"/>
@@ -1622,35 +1629,37 @@
         <v>63</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>94</v>
+        <v>149</v>
       </c>
       <c r="G14" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="H14" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="I14" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="J14" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="K14" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="L14" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="M14" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="N14" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="O14" s="4" t="s">
         <v>97</v>
-      </c>
-      <c r="H14" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="I14" s="7"/>
-      <c r="J14" s="4" t="s">
-        <v>112</v>
-      </c>
-      <c r="K14" s="4" t="s">
-        <v>112</v>
-      </c>
-      <c r="L14" s="4" t="s">
-        <v>125</v>
-      </c>
-      <c r="M14" s="4" t="s">
-        <v>135</v>
-      </c>
-      <c r="N14" s="4" t="s">
-        <v>141</v>
-      </c>
-      <c r="O14" s="4" t="s">
-        <v>10</v>
       </c>
       <c r="P14" s="4"/>
       <c r="Q14" s="4"/>
@@ -1672,37 +1681,35 @@
         <v>63</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="F15" s="4" t="s">
-        <v>94</v>
+        <v>149</v>
       </c>
       <c r="G15" s="4" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="H15" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="I15" s="8" t="s">
-        <v>100</v>
-      </c>
+      <c r="I15" s="7"/>
       <c r="J15" s="4" t="s">
-        <v>112</v>
+        <v>86</v>
       </c>
       <c r="K15" s="4" t="s">
-        <v>112</v>
+        <v>86</v>
       </c>
       <c r="L15" s="4" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="M15" s="4" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="N15" s="4" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="O15" s="4" t="s">
-        <v>108</v>
+        <v>10</v>
       </c>
       <c r="P15" s="4"/>
       <c r="Q15" s="4"/>
@@ -1724,37 +1731,37 @@
         <v>63</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="F16" s="4" t="s">
-        <v>94</v>
+        <v>149</v>
       </c>
       <c r="G16" s="4" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="H16" s="4" t="s">
         <v>91</v>
       </c>
       <c r="I16" s="8" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="J16" s="4" t="s">
-        <v>112</v>
+        <v>86</v>
       </c>
       <c r="K16" s="4" t="s">
-        <v>112</v>
+        <v>86</v>
       </c>
       <c r="L16" s="4" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="M16" s="4" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="N16" s="4" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="O16" s="4" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="P16" s="4"/>
       <c r="Q16" s="4"/>
@@ -1776,37 +1783,37 @@
         <v>63</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="F17" s="4" t="s">
-        <v>94</v>
+        <v>149</v>
       </c>
       <c r="G17" s="4" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="H17" s="4" t="s">
         <v>91</v>
       </c>
       <c r="I17" s="8" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="J17" s="4" t="s">
-        <v>112</v>
+        <v>86</v>
       </c>
       <c r="K17" s="4" t="s">
-        <v>112</v>
+        <v>86</v>
       </c>
       <c r="L17" s="4" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="M17" s="4" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="N17" s="4" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="O17" s="4" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="P17" s="4"/>
       <c r="Q17" s="4"/>
@@ -1828,37 +1835,37 @@
         <v>63</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="F18" s="4" t="s">
-        <v>94</v>
+        <v>149</v>
       </c>
       <c r="G18" s="4" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="H18" s="4" t="s">
         <v>91</v>
       </c>
       <c r="I18" s="8" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="J18" s="4" t="s">
-        <v>112</v>
+        <v>86</v>
       </c>
       <c r="K18" s="4" t="s">
-        <v>112</v>
+        <v>86</v>
       </c>
       <c r="L18" s="4" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="M18" s="4" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="N18" s="4" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="O18" s="4" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="P18" s="4"/>
       <c r="Q18" s="4"/>
@@ -1880,37 +1887,37 @@
         <v>63</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="F19" s="4" t="s">
-        <v>94</v>
+        <v>149</v>
       </c>
       <c r="G19" s="4" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="H19" s="4" t="s">
         <v>91</v>
       </c>
       <c r="I19" s="8" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="J19" s="4" t="s">
-        <v>112</v>
+        <v>86</v>
       </c>
       <c r="K19" s="4" t="s">
-        <v>112</v>
+        <v>86</v>
       </c>
       <c r="L19" s="4" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="M19" s="4" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="N19" s="4" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="O19" s="4" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="P19" s="4"/>
       <c r="Q19" s="4"/>
@@ -1932,37 +1939,37 @@
         <v>63</v>
       </c>
       <c r="E20" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="F20" s="4" t="s">
-        <v>94</v>
+        <v>149</v>
       </c>
       <c r="G20" s="4" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="H20" s="4" t="s">
         <v>91</v>
       </c>
       <c r="I20" s="8" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="J20" s="4" t="s">
-        <v>112</v>
+        <v>86</v>
       </c>
       <c r="K20" s="4" t="s">
-        <v>112</v>
+        <v>86</v>
       </c>
       <c r="L20" s="4" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="M20" s="4" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="N20" s="4" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="O20" s="4" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="P20" s="4"/>
       <c r="Q20" s="4"/>
@@ -1984,35 +1991,37 @@
         <v>63</v>
       </c>
       <c r="E21" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="F21" s="4" t="s">
-        <v>94</v>
+        <v>149</v>
       </c>
       <c r="G21" s="4" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="H21" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="I21" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="J21" s="7"/>
+      <c r="I21" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="J21" s="4" t="s">
+        <v>86</v>
+      </c>
       <c r="K21" s="4" t="s">
-        <v>112</v>
+        <v>86</v>
       </c>
       <c r="L21" s="4" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="M21" s="4" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="N21" s="4" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="O21" s="4" t="s">
-        <v>12</v>
+        <v>107</v>
       </c>
       <c r="P21" s="4"/>
       <c r="Q21" s="4"/>
@@ -2034,13 +2043,13 @@
         <v>63</v>
       </c>
       <c r="E22" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="F22" s="4" t="s">
-        <v>94</v>
+        <v>149</v>
       </c>
       <c r="G22" s="4" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="H22" s="4" t="s">
         <v>91</v>
@@ -2048,23 +2057,21 @@
       <c r="I22" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="J22" s="8" t="s">
-        <v>6</v>
-      </c>
+      <c r="J22" s="7"/>
       <c r="K22" s="4" t="s">
-        <v>112</v>
+        <v>86</v>
       </c>
       <c r="L22" s="4" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="M22" s="4" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="N22" s="4" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="O22" s="4" t="s">
-        <v>113</v>
+        <v>12</v>
       </c>
       <c r="P22" s="4"/>
       <c r="Q22" s="4"/>
@@ -2086,13 +2093,13 @@
         <v>63</v>
       </c>
       <c r="E23" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="F23" s="4" t="s">
-        <v>94</v>
+        <v>149</v>
       </c>
       <c r="G23" s="4" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="H23" s="4" t="s">
         <v>91</v>
@@ -2101,22 +2108,22 @@
         <v>67</v>
       </c>
       <c r="J23" s="8" t="s">
-        <v>82</v>
+        <v>6</v>
       </c>
       <c r="K23" s="4" t="s">
-        <v>112</v>
+        <v>86</v>
       </c>
       <c r="L23" s="4" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="M23" s="4" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="N23" s="4" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="O23" s="4" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="P23" s="4"/>
       <c r="Q23" s="4"/>
@@ -2138,13 +2145,13 @@
         <v>63</v>
       </c>
       <c r="E24" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="F24" s="4" t="s">
-        <v>94</v>
+        <v>149</v>
       </c>
       <c r="G24" s="4" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="H24" s="4" t="s">
         <v>91</v>
@@ -2153,22 +2160,22 @@
         <v>67</v>
       </c>
       <c r="J24" s="8" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="K24" s="4" t="s">
-        <v>112</v>
+        <v>86</v>
       </c>
       <c r="L24" s="4" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="M24" s="4" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="N24" s="4" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="O24" s="4" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="P24" s="4"/>
       <c r="Q24" s="4"/>
@@ -2190,13 +2197,13 @@
         <v>63</v>
       </c>
       <c r="E25" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="F25" s="4" t="s">
-        <v>94</v>
+        <v>149</v>
       </c>
       <c r="G25" s="4" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="H25" s="4" t="s">
         <v>91</v>
@@ -2205,22 +2212,22 @@
         <v>67</v>
       </c>
       <c r="J25" s="8" t="s">
-        <v>110</v>
+        <v>83</v>
       </c>
       <c r="K25" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="L25" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="M25" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="N25" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="O25" s="4" t="s">
         <v>112</v>
-      </c>
-      <c r="L25" s="4" t="s">
-        <v>125</v>
-      </c>
-      <c r="M25" s="4" t="s">
-        <v>135</v>
-      </c>
-      <c r="N25" s="4" t="s">
-        <v>141</v>
-      </c>
-      <c r="O25" s="4" t="s">
-        <v>114</v>
       </c>
       <c r="P25" s="4"/>
       <c r="Q25" s="4"/>
@@ -2242,13 +2249,13 @@
         <v>63</v>
       </c>
       <c r="E26" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="F26" s="4" t="s">
-        <v>94</v>
+        <v>149</v>
       </c>
       <c r="G26" s="4" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="H26" s="4" t="s">
         <v>91</v>
@@ -2256,21 +2263,23 @@
       <c r="I26" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="J26" s="4" t="s">
+      <c r="J26" s="8" t="s">
+        <v>108</v>
+      </c>
+      <c r="K26" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="L26" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="M26" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="N26" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="O26" s="4" t="s">
         <v>112</v>
-      </c>
-      <c r="K26" s="7"/>
-      <c r="L26" s="4" t="s">
-        <v>125</v>
-      </c>
-      <c r="M26" s="4" t="s">
-        <v>135</v>
-      </c>
-      <c r="N26" s="4" t="s">
-        <v>141</v>
-      </c>
-      <c r="O26" s="4" t="s">
-        <v>61</v>
       </c>
       <c r="P26" s="4"/>
       <c r="Q26" s="4"/>
@@ -2292,13 +2301,13 @@
         <v>63</v>
       </c>
       <c r="E27" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="F27" s="4" t="s">
-        <v>94</v>
+        <v>149</v>
       </c>
       <c r="G27" s="4" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="H27" s="4" t="s">
         <v>91</v>
@@ -2307,22 +2316,20 @@
         <v>67</v>
       </c>
       <c r="J27" s="4" t="s">
-        <v>112</v>
-      </c>
-      <c r="K27" s="8" t="s">
-        <v>6</v>
-      </c>
+        <v>86</v>
+      </c>
+      <c r="K27" s="7"/>
       <c r="L27" s="4" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="M27" s="4" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="N27" s="4" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="O27" s="4" t="s">
-        <v>115</v>
+        <v>61</v>
       </c>
       <c r="P27" s="4"/>
       <c r="Q27" s="4"/>
@@ -2344,13 +2351,13 @@
         <v>63</v>
       </c>
       <c r="E28" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="F28" s="4" t="s">
-        <v>94</v>
+        <v>149</v>
       </c>
       <c r="G28" s="4" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="H28" s="4" t="s">
         <v>91</v>
@@ -2359,22 +2366,22 @@
         <v>67</v>
       </c>
       <c r="J28" s="4" t="s">
-        <v>112</v>
+        <v>86</v>
       </c>
       <c r="K28" s="8" t="s">
-        <v>82</v>
+        <v>6</v>
       </c>
       <c r="L28" s="4" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="M28" s="4" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="N28" s="4" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="O28" s="4" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="P28" s="4"/>
       <c r="Q28" s="4"/>
@@ -2396,13 +2403,13 @@
         <v>63</v>
       </c>
       <c r="E29" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="F29" s="4" t="s">
-        <v>94</v>
+        <v>149</v>
       </c>
       <c r="G29" s="4" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="H29" s="4" t="s">
         <v>91</v>
@@ -2411,22 +2418,22 @@
         <v>67</v>
       </c>
       <c r="J29" s="4" t="s">
-        <v>112</v>
+        <v>86</v>
       </c>
       <c r="K29" s="8" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="L29" s="4" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="M29" s="4" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="N29" s="4" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="O29" s="4" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="P29" s="4"/>
       <c r="Q29" s="4"/>
@@ -2448,13 +2455,13 @@
         <v>63</v>
       </c>
       <c r="E30" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="F30" s="4" t="s">
-        <v>94</v>
+        <v>149</v>
       </c>
       <c r="G30" s="4" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="H30" s="4" t="s">
         <v>91</v>
@@ -2463,22 +2470,22 @@
         <v>67</v>
       </c>
       <c r="J30" s="4" t="s">
-        <v>112</v>
+        <v>86</v>
       </c>
       <c r="K30" s="8" t="s">
-        <v>110</v>
+        <v>83</v>
       </c>
       <c r="L30" s="4" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="M30" s="4" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="N30" s="4" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="O30" s="4" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="P30" s="4"/>
       <c r="Q30" s="4"/>
@@ -2500,13 +2507,13 @@
         <v>63</v>
       </c>
       <c r="E31" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="F31" s="4" t="s">
-        <v>94</v>
+        <v>149</v>
       </c>
       <c r="G31" s="4" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="H31" s="4" t="s">
         <v>91</v>
@@ -2515,20 +2522,22 @@
         <v>67</v>
       </c>
       <c r="J31" s="4" t="s">
-        <v>112</v>
-      </c>
-      <c r="K31" s="4" t="s">
-        <v>112</v>
-      </c>
-      <c r="L31" s="7"/>
+        <v>86</v>
+      </c>
+      <c r="K31" s="8" t="s">
+        <v>108</v>
+      </c>
+      <c r="L31" s="4" t="s">
+        <v>121</v>
+      </c>
       <c r="M31" s="4" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="N31" s="4" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="O31" s="4" t="s">
-        <v>15</v>
+        <v>114</v>
       </c>
       <c r="P31" s="4"/>
       <c r="Q31" s="4"/>
@@ -2550,13 +2559,13 @@
         <v>63</v>
       </c>
       <c r="E32" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="F32" s="4" t="s">
-        <v>94</v>
+        <v>149</v>
       </c>
       <c r="G32" s="4" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="H32" s="4" t="s">
         <v>91</v>
@@ -2565,22 +2574,20 @@
         <v>67</v>
       </c>
       <c r="J32" s="4" t="s">
-        <v>112</v>
+        <v>86</v>
       </c>
       <c r="K32" s="4" t="s">
-        <v>112</v>
-      </c>
-      <c r="L32" s="8" t="s">
-        <v>117</v>
-      </c>
+        <v>86</v>
+      </c>
+      <c r="L32" s="7"/>
       <c r="M32" s="4" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="N32" s="4" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="O32" s="4" t="s">
-        <v>126</v>
+        <v>15</v>
       </c>
       <c r="P32" s="4"/>
       <c r="Q32" s="4"/>
@@ -2602,13 +2609,13 @@
         <v>63</v>
       </c>
       <c r="E33" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="F33" s="4" t="s">
-        <v>94</v>
+        <v>149</v>
       </c>
       <c r="G33" s="4" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="H33" s="4" t="s">
         <v>91</v>
@@ -2617,22 +2624,22 @@
         <v>67</v>
       </c>
       <c r="J33" s="4" t="s">
-        <v>112</v>
+        <v>86</v>
       </c>
       <c r="K33" s="4" t="s">
-        <v>112</v>
+        <v>86</v>
       </c>
       <c r="L33" s="8" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="M33" s="4" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="N33" s="4" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="O33" s="4" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="P33" s="4"/>
       <c r="Q33" s="4"/>
@@ -2654,13 +2661,13 @@
         <v>63</v>
       </c>
       <c r="E34" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="F34" s="4" t="s">
-        <v>94</v>
+        <v>149</v>
       </c>
       <c r="G34" s="4" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="H34" s="4" t="s">
         <v>91</v>
@@ -2669,22 +2676,22 @@
         <v>67</v>
       </c>
       <c r="J34" s="4" t="s">
-        <v>112</v>
+        <v>86</v>
       </c>
       <c r="K34" s="4" t="s">
-        <v>112</v>
+        <v>86</v>
       </c>
       <c r="L34" s="8" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="M34" s="4" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="N34" s="4" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="O34" s="4" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="P34" s="4"/>
       <c r="Q34" s="4"/>
@@ -2706,13 +2713,13 @@
         <v>63</v>
       </c>
       <c r="E35" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="F35" s="4" t="s">
-        <v>94</v>
+        <v>149</v>
       </c>
       <c r="G35" s="4" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="H35" s="4" t="s">
         <v>91</v>
@@ -2721,22 +2728,22 @@
         <v>67</v>
       </c>
       <c r="J35" s="4" t="s">
-        <v>112</v>
+        <v>86</v>
       </c>
       <c r="K35" s="4" t="s">
-        <v>112</v>
+        <v>86</v>
       </c>
       <c r="L35" s="8" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="M35" s="4" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="N35" s="4" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="O35" s="4" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="P35" s="4"/>
       <c r="Q35" s="4"/>
@@ -2758,13 +2765,13 @@
         <v>63</v>
       </c>
       <c r="E36" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="F36" s="4" t="s">
-        <v>94</v>
+        <v>149</v>
       </c>
       <c r="G36" s="4" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="H36" s="4" t="s">
         <v>91</v>
@@ -2773,22 +2780,22 @@
         <v>67</v>
       </c>
       <c r="J36" s="4" t="s">
-        <v>112</v>
+        <v>86</v>
       </c>
       <c r="K36" s="4" t="s">
-        <v>112</v>
+        <v>86</v>
       </c>
       <c r="L36" s="8" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="M36" s="4" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="N36" s="4" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="O36" s="4" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="P36" s="4"/>
       <c r="Q36" s="4"/>
@@ -2810,13 +2817,13 @@
         <v>63</v>
       </c>
       <c r="E37" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="F37" s="4" t="s">
-        <v>94</v>
+        <v>149</v>
       </c>
       <c r="G37" s="4" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="H37" s="4" t="s">
         <v>91</v>
@@ -2825,20 +2832,22 @@
         <v>67</v>
       </c>
       <c r="J37" s="4" t="s">
-        <v>112</v>
+        <v>86</v>
       </c>
       <c r="K37" s="4" t="s">
-        <v>112</v>
-      </c>
-      <c r="L37" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="L37" s="8" t="s">
+        <v>119</v>
+      </c>
+      <c r="M37" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="N37" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="O37" s="4" t="s">
         <v>125</v>
-      </c>
-      <c r="M37" s="7"/>
-      <c r="N37" s="4" t="s">
-        <v>141</v>
-      </c>
-      <c r="O37" s="4" t="s">
-        <v>54</v>
       </c>
       <c r="P37" s="4"/>
       <c r="Q37" s="4"/>
@@ -2860,13 +2869,13 @@
         <v>63</v>
       </c>
       <c r="E38" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="F38" s="4" t="s">
-        <v>94</v>
+        <v>149</v>
       </c>
       <c r="G38" s="4" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="H38" s="4" t="s">
         <v>91</v>
@@ -2875,22 +2884,20 @@
         <v>67</v>
       </c>
       <c r="J38" s="4" t="s">
-        <v>112</v>
+        <v>86</v>
       </c>
       <c r="K38" s="4" t="s">
-        <v>112</v>
+        <v>86</v>
       </c>
       <c r="L38" s="4" t="s">
-        <v>125</v>
-      </c>
-      <c r="M38" s="8" t="s">
-        <v>128</v>
-      </c>
+        <v>121</v>
+      </c>
+      <c r="M38" s="7"/>
       <c r="N38" s="4" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="O38" s="4" t="s">
-        <v>136</v>
+        <v>54</v>
       </c>
       <c r="P38" s="4"/>
       <c r="Q38" s="4"/>
@@ -2912,13 +2919,13 @@
         <v>63</v>
       </c>
       <c r="E39" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="F39" s="4" t="s">
-        <v>94</v>
+        <v>149</v>
       </c>
       <c r="G39" s="4" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="H39" s="4" t="s">
         <v>91</v>
@@ -2927,22 +2934,22 @@
         <v>67</v>
       </c>
       <c r="J39" s="4" t="s">
-        <v>112</v>
+        <v>86</v>
       </c>
       <c r="K39" s="4" t="s">
-        <v>112</v>
+        <v>86</v>
       </c>
       <c r="L39" s="4" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="M39" s="8" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="N39" s="4" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="O39" s="4" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="P39" s="4"/>
       <c r="Q39" s="4"/>
@@ -2964,13 +2971,13 @@
         <v>63</v>
       </c>
       <c r="E40" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="F40" s="4" t="s">
-        <v>94</v>
+        <v>149</v>
       </c>
       <c r="G40" s="4" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="H40" s="4" t="s">
         <v>91</v>
@@ -2979,22 +2986,22 @@
         <v>67</v>
       </c>
       <c r="J40" s="4" t="s">
-        <v>112</v>
+        <v>86</v>
       </c>
       <c r="K40" s="4" t="s">
-        <v>112</v>
+        <v>86</v>
       </c>
       <c r="L40" s="4" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="M40" s="8" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="N40" s="4" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="O40" s="4" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="P40" s="4"/>
       <c r="Q40" s="4"/>
@@ -3016,13 +3023,13 @@
         <v>63</v>
       </c>
       <c r="E41" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="F41" s="4" t="s">
-        <v>94</v>
+        <v>149</v>
       </c>
       <c r="G41" s="4" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="H41" s="4" t="s">
         <v>91</v>
@@ -3031,22 +3038,22 @@
         <v>67</v>
       </c>
       <c r="J41" s="4" t="s">
-        <v>112</v>
+        <v>86</v>
       </c>
       <c r="K41" s="4" t="s">
-        <v>112</v>
+        <v>86</v>
       </c>
       <c r="L41" s="4" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="M41" s="8" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="N41" s="4" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="O41" s="4" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="P41" s="4"/>
       <c r="Q41" s="4"/>
@@ -3068,13 +3075,13 @@
         <v>63</v>
       </c>
       <c r="E42" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="F42" s="4" t="s">
-        <v>94</v>
+        <v>149</v>
       </c>
       <c r="G42" s="4" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="H42" s="4" t="s">
         <v>91</v>
@@ -3083,20 +3090,22 @@
         <v>67</v>
       </c>
       <c r="J42" s="4" t="s">
-        <v>112</v>
+        <v>86</v>
       </c>
       <c r="K42" s="4" t="s">
-        <v>112</v>
+        <v>86</v>
       </c>
       <c r="L42" s="4" t="s">
-        <v>125</v>
-      </c>
-      <c r="M42" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="M42" s="8" t="s">
+        <v>129</v>
+      </c>
+      <c r="N42" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="O42" s="4" t="s">
         <v>135</v>
-      </c>
-      <c r="N42" s="7"/>
-      <c r="O42" s="4" t="s">
-        <v>56</v>
       </c>
       <c r="P42" s="4"/>
       <c r="Q42" s="4"/>
@@ -3118,13 +3127,13 @@
         <v>63</v>
       </c>
       <c r="E43" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="F43" s="4" t="s">
-        <v>94</v>
+        <v>149</v>
       </c>
       <c r="G43" s="4" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="H43" s="4" t="s">
         <v>91</v>
@@ -3133,22 +3142,20 @@
         <v>67</v>
       </c>
       <c r="J43" s="4" t="s">
-        <v>112</v>
+        <v>86</v>
       </c>
       <c r="K43" s="4" t="s">
-        <v>112</v>
+        <v>86</v>
       </c>
       <c r="L43" s="4" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="M43" s="4" t="s">
-        <v>135</v>
-      </c>
-      <c r="N43" s="8" t="s">
-        <v>100</v>
-      </c>
+        <v>131</v>
+      </c>
+      <c r="N43" s="7"/>
       <c r="O43" s="4" t="s">
-        <v>142</v>
+        <v>56</v>
       </c>
       <c r="P43" s="4"/>
       <c r="Q43" s="4"/>
@@ -3170,13 +3177,13 @@
         <v>63</v>
       </c>
       <c r="E44" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="F44" s="4" t="s">
-        <v>94</v>
+        <v>149</v>
       </c>
       <c r="G44" s="4" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="H44" s="4" t="s">
         <v>91</v>
@@ -3185,22 +3192,22 @@
         <v>67</v>
       </c>
       <c r="J44" s="4" t="s">
-        <v>112</v>
+        <v>86</v>
       </c>
       <c r="K44" s="4" t="s">
-        <v>112</v>
+        <v>86</v>
       </c>
       <c r="L44" s="4" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="M44" s="4" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="N44" s="8" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="O44" s="4" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="P44" s="4"/>
       <c r="Q44" s="4"/>
@@ -3222,13 +3229,13 @@
         <v>63</v>
       </c>
       <c r="E45" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="F45" s="4" t="s">
-        <v>94</v>
+        <v>149</v>
       </c>
       <c r="G45" s="4" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="H45" s="4" t="s">
         <v>91</v>
@@ -3237,22 +3244,22 @@
         <v>67</v>
       </c>
       <c r="J45" s="4" t="s">
-        <v>112</v>
+        <v>86</v>
       </c>
       <c r="K45" s="4" t="s">
-        <v>112</v>
+        <v>86</v>
       </c>
       <c r="L45" s="4" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="M45" s="4" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="N45" s="8" t="s">
-        <v>138</v>
+        <v>99</v>
       </c>
       <c r="O45" s="4" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="P45" s="4"/>
       <c r="Q45" s="4"/>
@@ -3274,13 +3281,13 @@
         <v>63</v>
       </c>
       <c r="E46" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="F46" s="4" t="s">
-        <v>94</v>
+        <v>149</v>
       </c>
       <c r="G46" s="4" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="H46" s="4" t="s">
         <v>91</v>
@@ -3289,22 +3296,22 @@
         <v>67</v>
       </c>
       <c r="J46" s="4" t="s">
-        <v>112</v>
+        <v>86</v>
       </c>
       <c r="K46" s="4" t="s">
-        <v>112</v>
+        <v>86</v>
       </c>
       <c r="L46" s="4" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="M46" s="4" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="N46" s="8" t="s">
-        <v>103</v>
+        <v>136</v>
       </c>
       <c r="O46" s="4" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="P46" s="4"/>
       <c r="Q46" s="4"/>
@@ -3326,13 +3333,13 @@
         <v>63</v>
       </c>
       <c r="E47" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="F47" s="4" t="s">
-        <v>94</v>
+        <v>149</v>
       </c>
       <c r="G47" s="4" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="H47" s="4" t="s">
         <v>91</v>
@@ -3341,22 +3348,22 @@
         <v>67</v>
       </c>
       <c r="J47" s="4" t="s">
-        <v>112</v>
+        <v>86</v>
       </c>
       <c r="K47" s="4" t="s">
-        <v>112</v>
+        <v>86</v>
       </c>
       <c r="L47" s="4" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="M47" s="4" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="N47" s="8" t="s">
-        <v>139</v>
+        <v>101</v>
       </c>
       <c r="O47" s="4" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="P47" s="4"/>
       <c r="Q47" s="4"/>
@@ -3378,37 +3385,37 @@
         <v>63</v>
       </c>
       <c r="E48" s="4" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="F48" s="4" t="s">
-        <v>94</v>
+        <v>149</v>
       </c>
       <c r="G48" s="4" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="H48" s="4" t="s">
         <v>91</v>
       </c>
       <c r="I48" s="4" t="s">
-        <v>9</v>
+        <v>67</v>
       </c>
       <c r="J48" s="4" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K48" s="4" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="L48" s="4" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="M48" s="4" t="s">
-        <v>132</v>
-      </c>
-      <c r="N48" s="4" t="s">
-        <v>140</v>
+        <v>131</v>
+      </c>
+      <c r="N48" s="8" t="s">
+        <v>137</v>
       </c>
       <c r="O48" s="4" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="P48" s="4"/>
       <c r="Q48" s="4"/>
@@ -3430,37 +3437,37 @@
         <v>63</v>
       </c>
       <c r="E49" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F49" s="4" t="s">
-        <v>94</v>
+        <v>149</v>
       </c>
       <c r="G49" s="4" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="H49" s="4" t="s">
         <v>91</v>
       </c>
       <c r="I49" s="4" t="s">
-        <v>106</v>
+        <v>9</v>
       </c>
       <c r="J49" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="K49" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="L49" s="4" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="M49" s="4" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="N49" s="4" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="O49" s="4" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="P49" s="4"/>
       <c r="Q49" s="4"/>
@@ -3482,37 +3489,37 @@
         <v>63</v>
       </c>
       <c r="E50" s="4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F50" s="4" t="s">
-        <v>94</v>
+        <v>149</v>
       </c>
       <c r="G50" s="4" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="H50" s="4" t="s">
         <v>91</v>
       </c>
       <c r="I50" s="4" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="J50" s="4" t="s">
-        <v>111</v>
+        <v>86</v>
       </c>
       <c r="K50" s="4" t="s">
-        <v>111</v>
+        <v>86</v>
       </c>
       <c r="L50" s="4" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="M50" s="4" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="N50" s="4" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="O50" s="4" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="P50" s="4"/>
       <c r="Q50" s="4"/>
@@ -3534,43 +3541,95 @@
         <v>63</v>
       </c>
       <c r="E51" s="4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F51" s="4" t="s">
-        <v>94</v>
+        <v>149</v>
       </c>
       <c r="G51" s="4" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="H51" s="4" t="s">
         <v>91</v>
       </c>
       <c r="I51" s="4" t="s">
-        <v>67</v>
+        <v>105</v>
       </c>
       <c r="J51" s="4" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="K51" s="4" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="L51" s="4" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="M51" s="4" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="N51" s="4" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="O51" s="4" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="P51" s="4"/>
       <c r="Q51" s="4"/>
       <c r="R51" s="4"/>
       <c r="S51" s="4"/>
       <c r="T51" s="4"/>
+    </row>
+    <row r="52" spans="1:20">
+      <c r="A52" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="B52" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C52" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="D52" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="E52" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="F52" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="G52" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="H52" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="I52" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="J52" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="K52" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="L52" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="M52" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="N52" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="O52" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="P52" s="4"/>
+      <c r="Q52" s="4"/>
+      <c r="R52" s="4"/>
+      <c r="S52" s="4"/>
+      <c r="T52" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
